--- a/iteration_results.xlsx
+++ b/iteration_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>V0</t>
   </si>
@@ -140,6 +140,48 @@
   </si>
   <si>
     <t>L7</t>
+  </si>
+  <si>
+    <t>L8</t>
+  </si>
+  <si>
+    <t>L9</t>
+  </si>
+  <si>
+    <t>L10</t>
+  </si>
+  <si>
+    <t>Ll0</t>
+  </si>
+  <si>
+    <t>Ll1</t>
+  </si>
+  <si>
+    <t>Ll2</t>
+  </si>
+  <si>
+    <t>Ll3</t>
+  </si>
+  <si>
+    <t>Ll4</t>
+  </si>
+  <si>
+    <t>Ll5</t>
+  </si>
+  <si>
+    <t>Ll6</t>
+  </si>
+  <si>
+    <t>Ll7</t>
+  </si>
+  <si>
+    <t>Ll8</t>
+  </si>
+  <si>
+    <t>Ll9</t>
+  </si>
+  <si>
+    <t>Ll10</t>
   </si>
   <si>
     <t>T0</t>
@@ -521,13 +563,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY25"/>
+  <dimension ref="A1:BM25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:65">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,8 +720,50 @@
       <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:65">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -687,154 +771,196 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030933301280385</v>
+        <v>1.040901041227525</v>
       </c>
       <c r="D2">
-        <v>0.9561949926355424</v>
+        <v>1.000448774362057</v>
       </c>
       <c r="E2">
-        <v>0.9717298695625823</v>
+        <v>1.0151842468278</v>
       </c>
       <c r="F2">
-        <v>0.9414856000849138</v>
+        <v>0.9870743059824402</v>
       </c>
       <c r="G2">
-        <v>0.9573065165296696</v>
+        <v>1.002042243293823</v>
       </c>
       <c r="H2">
-        <v>0.939646407768768</v>
+        <v>0.9754436757687144</v>
       </c>
       <c r="I2">
-        <v>0.9555038596601566</v>
+        <v>0.9906200434024488</v>
       </c>
       <c r="J2">
-        <v>0.93694685482888</v>
+        <v>0.9804660948014603</v>
       </c>
       <c r="K2">
-        <v>0.9528582512122744</v>
+        <v>0.9955517225609581</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9542121099728206</v>
+        <v>0.9969662418973346</v>
       </c>
       <c r="N2">
-        <v>0.9542121099728206</v>
+        <v>0.9969662418973346</v>
       </c>
       <c r="O2">
-        <v>0.9845401697365875</v>
+        <v>1.005187279336402</v>
       </c>
       <c r="P2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.9874912016956339</v>
+        <v>1.014167721114513</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2">
-        <v>27.48058456256956</v>
+        <v>13.39003001735916</v>
       </c>
       <c r="T2">
-        <v>23.50764361109063</v>
+        <v>9.455194437627304</v>
       </c>
       <c r="U2">
-        <v>10.29488404449196</v>
+        <v>1.518132883497646</v>
       </c>
       <c r="V2">
-        <v>13.34598686799444</v>
+        <v>4.309234428800986</v>
       </c>
       <c r="W2">
-        <v>9.413094754804707</v>
+        <v>1.776099182186516</v>
       </c>
       <c r="X2">
-        <v>12.55864822147245</v>
+        <v>4.642182691555417</v>
       </c>
       <c r="Y2">
-        <v>2.407955717907453</v>
+        <v>-2.916622238169643</v>
       </c>
       <c r="Z2">
-        <v>5.565624323619888</v>
+        <v>0.01713426518510873</v>
       </c>
       <c r="AA2">
-        <v>5.833098860323598</v>
+        <v>-1.416135759384507</v>
       </c>
       <c r="AB2">
-        <v>9.008676222538989</v>
+        <v>1.488108675732143</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>8.995835712051981</v>
+        <v>1.475268165245137</v>
       </c>
       <c r="AE2">
-        <v>8.995835712051981</v>
+        <v>1.475268165245137</v>
       </c>
       <c r="AF2">
-        <v>17.74590008185537</v>
+        <v>9.707569193921008</v>
       </c>
       <c r="AG2">
-        <v>22.2023456425232</v>
+        <v>13.67483671580955</v>
       </c>
       <c r="AH2">
-        <v>13.2910861337208</v>
+        <v>4.480842125616918</v>
       </c>
       <c r="AI2">
-        <v>13.41873367021108</v>
+        <v>4.605132034637388</v>
       </c>
       <c r="AJ2">
-        <v>66.75510911265926</v>
+        <v>34.33670330743147</v>
       </c>
       <c r="AK2">
-        <v>53.65945310108867</v>
+        <v>38.14411666562606</v>
       </c>
       <c r="AL2">
-        <v>1.967062286810271</v>
+        <v>2.055197869701238</v>
       </c>
       <c r="AM2">
-        <v>19.29198966735867</v>
+        <v>17.95324436624223</v>
       </c>
       <c r="AN2">
-        <v>29.17575974805858</v>
+        <v>13.19146204539185</v>
       </c>
       <c r="AO2">
-        <v>34.85906403172565</v>
+        <v>5.288490266401427</v>
       </c>
       <c r="AP2">
-        <v>46.86609582291084</v>
+        <v>45.20250313374206</v>
       </c>
       <c r="AQ2">
-        <v>7.304535664400295</v>
+        <v>2.957004674405686</v>
       </c>
       <c r="AR2">
-        <v>74.60691194771491</v>
+        <v>15.72276300071307</v>
       </c>
       <c r="AS2">
-        <v>53.62450348762401</v>
+        <v>30.7761154155587</v>
       </c>
       <c r="AT2">
-        <v>54.46231117375421</v>
+        <v>6.027241686204568</v>
       </c>
       <c r="AU2">
-        <v>54.5689115538569</v>
+        <v>3.423732603058767</v>
       </c>
       <c r="AV2">
-        <v>54.7261367634325</v>
+        <v>2.114885634528207</v>
       </c>
       <c r="AW2">
+        <v>0.0007771961341913134</v>
+      </c>
+      <c r="AX2">
+        <v>0.5193865778351707</v>
+      </c>
+      <c r="AY2">
+        <v>0.355678064670883</v>
+      </c>
+      <c r="AZ2">
+        <v>0.01492722583043937</v>
+      </c>
+      <c r="BA2">
+        <v>2.110989574742462</v>
+      </c>
+      <c r="BB2">
+        <v>0.001740528133245434</v>
+      </c>
+      <c r="BC2">
+        <v>1.235189858145219</v>
+      </c>
+      <c r="BD2">
+        <v>3.062279534888745</v>
+      </c>
+      <c r="BE2">
+        <v>0.03856168617013389</v>
+      </c>
+      <c r="BF2">
+        <v>72.35678347327737</v>
+      </c>
+      <c r="BG2">
+        <v>51.25248091800552</v>
+      </c>
+      <c r="BH2">
+        <v>51.94693186385653</v>
+      </c>
+      <c r="BI2">
+        <v>52.56631724740512</v>
+      </c>
+      <c r="BJ2">
+        <v>52.29704728118758</v>
+      </c>
+      <c r="BK2">
         <v>0</v>
       </c>
-      <c r="AX2">
-        <v>78.69022136993466</v>
-      </c>
-      <c r="AY2">
-        <v>12.70320237550262</v>
+      <c r="BL2">
+        <v>69.60093963797196</v>
+      </c>
+      <c r="BM2">
+        <v>14.33515655152713</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:65">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -842,154 +968,196 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030980016443872</v>
+        <v>1.041270247513281</v>
       </c>
       <c r="D3">
-        <v>0.9565160833720515</v>
+        <v>1.001448924898873</v>
       </c>
       <c r="E3">
-        <v>0.9718909572177814</v>
+        <v>1.01603303101531</v>
       </c>
       <c r="F3">
-        <v>0.9422302768709342</v>
+        <v>0.9883547767977028</v>
       </c>
       <c r="G3">
-        <v>0.9578755502794741</v>
+        <v>1.003160495987924</v>
       </c>
       <c r="H3">
-        <v>0.9390829777519036</v>
+        <v>0.9769745769888406</v>
       </c>
       <c r="I3">
-        <v>0.954789153780516</v>
+        <v>0.9919786506892737</v>
       </c>
       <c r="J3">
-        <v>0.9371415222838121</v>
+        <v>0.982087113955296</v>
       </c>
       <c r="K3">
-        <v>0.9528855126579602</v>
+        <v>0.9970014000018627</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9542394101526483</v>
+        <v>0.9984179790973909</v>
       </c>
       <c r="N3">
-        <v>0.9542394101526483</v>
+        <v>0.9984179790973909</v>
       </c>
       <c r="O3">
-        <v>0.9848045679481746</v>
+        <v>1.005680074562336</v>
       </c>
       <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1.014956423372416</v>
+      </c>
+      <c r="R3">
         <v>0.9999999999999999</v>
       </c>
-      <c r="Q3">
-        <v>0.9875779680932183</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
       <c r="S3">
-        <v>29.48457014670696</v>
+        <v>14.04868329510385</v>
       </c>
       <c r="T3">
-        <v>25.51180950386194</v>
+        <v>10.11524509809487</v>
       </c>
       <c r="U3">
-        <v>12.47752552573385</v>
+        <v>2.345895181377235</v>
       </c>
       <c r="V3">
-        <v>15.3512724248807</v>
+        <v>4.971271616056625</v>
       </c>
       <c r="W3">
-        <v>11.83144583461621</v>
+        <v>2.833396511970367</v>
       </c>
       <c r="X3">
-        <v>14.79152480283888</v>
+        <v>5.527740353730462</v>
       </c>
       <c r="Y3">
-        <v>4.111584908146751</v>
+        <v>-2.096074788202086</v>
       </c>
       <c r="Z3">
-        <v>7.091202671728863</v>
+        <v>0.6604264288484433</v>
       </c>
       <c r="AA3">
-        <v>7.959712346447342</v>
+        <v>-0.4797985672119729</v>
       </c>
       <c r="AB3">
-        <v>10.95147884669375</v>
+        <v>2.248516909203114</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>10.93863833620675</v>
+        <v>2.23567639871611</v>
       </c>
       <c r="AE3">
-        <v>10.93863833620675</v>
+        <v>2.23567639871611</v>
       </c>
       <c r="AF3">
-        <v>19.97709964768167</v>
+        <v>10.59060089480231</v>
       </c>
       <c r="AG3">
-        <v>24.43234633383348</v>
+        <v>14.55592129782381</v>
       </c>
       <c r="AH3">
-        <v>15.2909522205674</v>
+        <v>5.275161173843956</v>
       </c>
       <c r="AI3">
-        <v>15.41007944140239</v>
+        <v>5.391074932776188</v>
       </c>
       <c r="AJ3">
-        <v>66.74087569275203</v>
+        <v>34.28817508534739</v>
       </c>
       <c r="AK3">
-        <v>54.40913302253584</v>
+        <v>36.88270521482728</v>
       </c>
       <c r="AL3">
-        <v>1.967118564815753</v>
+        <v>2.058190555988346</v>
       </c>
       <c r="AM3">
-        <v>20.83833022231081</v>
+        <v>18.67649506127518</v>
       </c>
       <c r="AN3">
-        <v>32.61526423831624</v>
+        <v>14.20175134589135</v>
       </c>
       <c r="AO3">
-        <v>42.44664526288697</v>
+        <v>6.296674778949403</v>
       </c>
       <c r="AP3">
-        <v>46.82087081081067</v>
+        <v>45.21644694285044</v>
       </c>
       <c r="AQ3">
-        <v>7.283859306003038</v>
+        <v>3.381005529059394</v>
       </c>
       <c r="AR3">
-        <v>74.59340304216417</v>
+        <v>17.88232201077612</v>
       </c>
       <c r="AS3">
-        <v>50.73979589781703</v>
+        <v>30.73060960217875</v>
       </c>
       <c r="AT3">
-        <v>51.50909712268275</v>
+        <v>6.038796679338017</v>
       </c>
       <c r="AU3">
-        <v>51.68172780584604</v>
+        <v>3.415948930654878</v>
       </c>
       <c r="AV3">
-        <v>51.78879570398433</v>
+        <v>1.976265565027774</v>
       </c>
       <c r="AW3">
+        <v>0.00077946121797862</v>
+      </c>
+      <c r="AX3">
+        <v>0.5615467573285144</v>
+      </c>
+      <c r="AY3">
+        <v>0.4140506717920118</v>
+      </c>
+      <c r="AZ3">
+        <v>0.03324309722268914</v>
+      </c>
+      <c r="BA3">
+        <v>2.111323514268662</v>
+      </c>
+      <c r="BB3">
+        <v>0.00511323246917339</v>
+      </c>
+      <c r="BC3">
+        <v>1.63464777236689</v>
+      </c>
+      <c r="BD3">
+        <v>3.055317606644991</v>
+      </c>
+      <c r="BE3">
+        <v>0.03951771552303462</v>
+      </c>
+      <c r="BF3">
+        <v>72.29861903894246</v>
+      </c>
+      <c r="BG3">
+        <v>48.46321128976007</v>
+      </c>
+      <c r="BH3">
+        <v>49.10527270432883</v>
+      </c>
+      <c r="BI3">
+        <v>49.67727102261293</v>
+      </c>
+      <c r="BJ3">
+        <v>49.41866169876904</v>
+      </c>
+      <c r="BK3">
         <v>0</v>
       </c>
-      <c r="AX3">
-        <v>78.62851016298842</v>
-      </c>
-      <c r="AY3">
-        <v>12.59269992289545</v>
+      <c r="BL3">
+        <v>69.62240973694421</v>
+      </c>
+      <c r="BM3">
+        <v>15.09465641945716</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:65">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -997,154 +1165,196 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030950275356133</v>
+        <v>1.041534208566952</v>
       </c>
       <c r="D4">
-        <v>0.9565293514659832</v>
+        <v>1.002168381410805</v>
       </c>
       <c r="E4">
-        <v>0.9717884011258762</v>
+        <v>1.016639863715729</v>
       </c>
       <c r="F4">
-        <v>0.9426062859964732</v>
+        <v>0.9893036343480415</v>
       </c>
       <c r="G4">
-        <v>0.958123601942559</v>
+        <v>1.00398847817719</v>
       </c>
       <c r="H4">
-        <v>0.9382162203635671</v>
+        <v>0.9780818547831676</v>
       </c>
       <c r="I4">
-        <v>0.9538168587442283</v>
+        <v>0.9929582033875841</v>
       </c>
       <c r="J4">
-        <v>0.9369623504576041</v>
+        <v>0.9832758530207105</v>
       </c>
       <c r="K4">
-        <v>0.9525869574457877</v>
+        <v>0.9980629248155813</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9539404307414001</v>
+        <v>0.9994810121676282</v>
       </c>
       <c r="N4">
-        <v>0.9539404307414001</v>
+        <v>0.9994810121676282</v>
       </c>
       <c r="O4">
-        <v>0.9849198234903216</v>
+        <v>1.006044951455279</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q4">
-        <v>0.9875072290844167</v>
+        <v>1.015529931465337</v>
       </c>
       <c r="R4">
         <v>0.9999999999999999</v>
       </c>
       <c r="S4">
-        <v>31.0824439451327</v>
+        <v>14.57010155478061</v>
       </c>
       <c r="T4">
-        <v>27.10956851115786</v>
+        <v>10.63766179649501</v>
       </c>
       <c r="U4">
-        <v>14.21376679033349</v>
+        <v>3.000392148274249</v>
       </c>
       <c r="V4">
-        <v>16.94831864890699</v>
+        <v>5.495105707115958</v>
       </c>
       <c r="W4">
-        <v>13.7538813795601</v>
+        <v>3.668614485937415</v>
       </c>
       <c r="X4">
-        <v>16.56846463444649</v>
+        <v>6.227656137167727</v>
       </c>
       <c r="Y4">
-        <v>5.464028600665957</v>
+        <v>-1.448034491373487</v>
       </c>
       <c r="Z4">
-        <v>8.304570997075762</v>
+        <v>1.169160954006388</v>
       </c>
       <c r="AA4">
-        <v>9.649611485668524</v>
+        <v>0.259740523134098</v>
       </c>
       <c r="AB4">
-        <v>12.49763371153162</v>
+        <v>2.849777177076882</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>12.48479320104461</v>
+        <v>2.836936666589879</v>
       </c>
       <c r="AE4">
-        <v>12.48479320104461</v>
+        <v>2.836936666589879</v>
       </c>
       <c r="AF4">
-        <v>21.75330930906436</v>
+        <v>11.28865159355826</v>
       </c>
       <c r="AG4">
-        <v>26.20803358809694</v>
+        <v>15.25253153711294</v>
       </c>
       <c r="AH4">
-        <v>16.88158939141568</v>
+        <v>5.902636992574525</v>
       </c>
       <c r="AI4">
-        <v>16.99221543808828</v>
+        <v>6.010210402018306</v>
       </c>
       <c r="AJ4">
-        <v>66.74993479409378</v>
+        <v>34.25395794853859</v>
       </c>
       <c r="AK4">
-        <v>55.02159963540662</v>
+        <v>35.89116130184522</v>
       </c>
       <c r="AL4">
-        <v>1.966502233165528</v>
+        <v>2.060381947441541</v>
       </c>
       <c r="AM4">
-        <v>22.0640459991827</v>
+        <v>19.24676442022554</v>
       </c>
       <c r="AN4">
-        <v>35.34958284956723</v>
+        <v>15.00493757673606</v>
       </c>
       <c r="AO4">
-        <v>48.67589293535367</v>
+        <v>8.222102853924728</v>
       </c>
       <c r="AP4">
-        <v>46.80130423504728</v>
+        <v>45.22823472935111</v>
       </c>
       <c r="AQ4">
-        <v>7.297162237101807</v>
+        <v>3.782294978893463</v>
       </c>
       <c r="AR4">
-        <v>74.60200033466803</v>
+        <v>19.60790738035198</v>
       </c>
       <c r="AS4">
-        <v>48.47482091064011</v>
+        <v>30.69849594578496</v>
       </c>
       <c r="AT4">
-        <v>49.19083364595536</v>
+        <v>6.067184913652035</v>
       </c>
       <c r="AU4">
-        <v>49.42100552271034</v>
+        <v>3.410490899053912</v>
       </c>
       <c r="AV4">
-        <v>49.48714213056564</v>
+        <v>1.870553110479506</v>
       </c>
       <c r="AW4">
+        <v>0.000781121913527095</v>
+      </c>
+      <c r="AX4">
+        <v>0.5960762712265222</v>
+      </c>
+      <c r="AY4">
+        <v>0.4634634062957588</v>
+      </c>
+      <c r="AZ4">
+        <v>0.07847884748264633</v>
+      </c>
+      <c r="BA4">
+        <v>2.111708007759802</v>
+      </c>
+      <c r="BB4">
+        <v>0.009061487056224671</v>
+      </c>
+      <c r="BC4">
+        <v>1.990479402408567</v>
+      </c>
+      <c r="BD4">
+        <v>3.050435794771488</v>
+      </c>
+      <c r="BE4">
+        <v>0.04127909563126941</v>
+      </c>
+      <c r="BF4">
+        <v>72.25816816852195</v>
+      </c>
+      <c r="BG4">
+        <v>46.26726393304308</v>
+      </c>
+      <c r="BH4">
+        <v>46.86891607210242</v>
+      </c>
+      <c r="BI4">
+        <v>47.40665495564642</v>
+      </c>
+      <c r="BJ4">
+        <v>47.15623684405448</v>
+      </c>
+      <c r="BK4">
         <v>0</v>
       </c>
-      <c r="AX4">
-        <v>78.60187413524818</v>
-      </c>
-      <c r="AY4">
-        <v>12.63925222663253</v>
+      <c r="BL4">
+        <v>69.64056008172196</v>
+      </c>
+      <c r="BM4">
+        <v>15.64476137404273</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:65">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1152,154 +1362,196 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030923590658765</v>
+        <v>1.041629147582877</v>
       </c>
       <c r="D5">
-        <v>0.956479392462585</v>
+        <v>1.002428267921504</v>
       </c>
       <c r="E5">
-        <v>0.9716963845349631</v>
+        <v>1.016858123827415</v>
       </c>
       <c r="F5">
-        <v>0.942702030752483</v>
+        <v>0.9896530456015995</v>
       </c>
       <c r="G5">
-        <v>0.9581726819810371</v>
+        <v>1.004293175011236</v>
       </c>
       <c r="H5">
-        <v>0.9377863979011557</v>
+        <v>0.9784834546534655</v>
       </c>
       <c r="I5">
-        <v>0.9533496854881297</v>
+        <v>0.9933126964134337</v>
       </c>
       <c r="J5">
-        <v>0.9368173871015977</v>
+        <v>0.9837111041798312</v>
       </c>
       <c r="K5">
-        <v>0.9523990716575416</v>
+        <v>0.9984512110890448</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9537522779975812</v>
+        <v>0.9998698501336148</v>
       </c>
       <c r="N5">
-        <v>0.9537522779975812</v>
+        <v>0.9998698501336148</v>
       </c>
       <c r="O5">
-        <v>0.9849426281856304</v>
+        <v>1.006179225672078</v>
       </c>
       <c r="P5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.987446222206519</v>
+        <v>1.015737501826457</v>
       </c>
       <c r="R5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>31.69813043318718</v>
+        <v>14.7700164108642</v>
       </c>
       <c r="T5">
-        <v>27.72515199912546</v>
+        <v>10.8379356375523</v>
       </c>
       <c r="U5">
-        <v>14.88199362025359</v>
+        <v>3.251298118501598</v>
       </c>
       <c r="V5">
-        <v>17.5632624607848</v>
+        <v>5.695888760841085</v>
       </c>
       <c r="W5">
-        <v>14.49394818973818</v>
+        <v>3.988353159031891</v>
       </c>
       <c r="X5">
-        <v>17.25285894820955</v>
+        <v>6.495519615669911</v>
       </c>
       <c r="Y5">
-        <v>5.984197483488108</v>
+        <v>-1.199633656346572</v>
       </c>
       <c r="Z5">
-        <v>8.771622611698024</v>
+        <v>1.364221650032506</v>
       </c>
       <c r="AA5">
-        <v>10.29985749805699</v>
+        <v>0.5431453388872854</v>
       </c>
       <c r="AB5">
-        <v>13.09295540813667</v>
+        <v>3.080233460833967</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>13.08011489764966</v>
+        <v>3.067392950346964</v>
       </c>
       <c r="AE5">
-        <v>13.08011489764966</v>
+        <v>3.067392950346964</v>
       </c>
       <c r="AF5">
-        <v>22.4375592122937</v>
+        <v>11.55582983313998</v>
       </c>
       <c r="AG5">
-        <v>26.89218014132688</v>
+        <v>15.51917995310501</v>
       </c>
       <c r="AH5">
-        <v>17.49235265564387</v>
+        <v>6.142309042957014</v>
       </c>
       <c r="AI5">
-        <v>17.59756993523764</v>
+        <v>6.244595708410662</v>
       </c>
       <c r="AJ5">
-        <v>66.7580705830616</v>
+        <v>34.24174871625873</v>
       </c>
       <c r="AK5">
-        <v>55.25816173706749</v>
+        <v>35.51150778598095</v>
       </c>
       <c r="AL5">
-        <v>1.966114365350039</v>
+        <v>2.06118351817242</v>
       </c>
       <c r="AM5">
-        <v>22.53603235250009</v>
+        <v>19.46305886783811</v>
       </c>
       <c r="AN5">
-        <v>36.4007241267693</v>
+        <v>15.31323244693085</v>
       </c>
       <c r="AO5">
-        <v>51.10262136174146</v>
+        <v>9.093963372484581</v>
       </c>
       <c r="AP5">
-        <v>46.79744339935647</v>
+        <v>45.23288583176736</v>
       </c>
       <c r="AQ5">
-        <v>7.309142015645401</v>
+        <v>3.944786938928849</v>
       </c>
       <c r="AR5">
-        <v>74.60972340972378</v>
+        <v>20.27236851498643</v>
       </c>
       <c r="AS5">
-        <v>47.60827058599254</v>
+        <v>30.68703155685999</v>
       </c>
       <c r="AT5">
-        <v>48.30405392246423</v>
+        <v>6.082812383306624</v>
       </c>
       <c r="AU5">
-        <v>48.55725123354162</v>
+        <v>3.408549588022225</v>
       </c>
       <c r="AV5">
-        <v>48.60747713828038</v>
+        <v>1.830834397741114</v>
       </c>
       <c r="AW5">
+        <v>0.0007817298069360769</v>
+      </c>
+      <c r="AX5">
+        <v>0.6094661712006086</v>
+      </c>
+      <c r="AY5">
+        <v>0.483137015773238</v>
+      </c>
+      <c r="AZ5">
+        <v>0.1030195369335019</v>
+      </c>
+      <c r="BA5">
+        <v>2.111878892659234</v>
+      </c>
+      <c r="BB5">
+        <v>0.01084013413954743</v>
+      </c>
+      <c r="BC5">
+        <v>2.136172564255475</v>
+      </c>
+      <c r="BD5">
+        <v>3.048699433398497</v>
+      </c>
+      <c r="BE5">
+        <v>0.04220544092695455</v>
+      </c>
+      <c r="BF5">
+        <v>72.24385059410056</v>
+      </c>
+      <c r="BG5">
+        <v>45.42602317141583</v>
+      </c>
+      <c r="BH5">
+        <v>46.01241811831477</v>
+      </c>
+      <c r="BI5">
+        <v>46.53765938475816</v>
+      </c>
+      <c r="BJ5">
+        <v>46.29034838866672</v>
+      </c>
+      <c r="BK5">
         <v>0</v>
       </c>
-      <c r="AX5">
-        <v>78.59662295985331</v>
-      </c>
-      <c r="AY5">
-        <v>12.68571327607231</v>
+      <c r="BL5">
+        <v>69.64772165632705</v>
+      </c>
+      <c r="BM5">
+        <v>15.8400188810779</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:65">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1307,309 +1559,393 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030908010344957</v>
+        <v>1.041679203288045</v>
       </c>
       <c r="D6">
-        <v>0.9564479726570958</v>
+        <v>1.002565458101819</v>
       </c>
       <c r="E6">
-        <v>0.9716426591556108</v>
+        <v>1.016973199479118</v>
       </c>
       <c r="F6">
-        <v>0.9427492196520511</v>
+        <v>0.9898371843156766</v>
       </c>
       <c r="G6">
-        <v>0.9581951128756008</v>
+        <v>1.004453578373874</v>
       </c>
       <c r="H6">
-        <v>0.9375458868250214</v>
+        <v>0.9786960257804689</v>
       </c>
       <c r="I6">
-        <v>0.9530894670946811</v>
+        <v>0.9935002558051823</v>
       </c>
       <c r="J6">
-        <v>0.936733484801702</v>
+        <v>0.9839422029378316</v>
       </c>
       <c r="K6">
-        <v>0.9522924326294145</v>
+        <v>0.9986573659156691</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.953645487452497</v>
+        <v>1.000076297873186</v>
       </c>
       <c r="N6">
-        <v>0.953645487452497</v>
+        <v>1.000076297873186</v>
       </c>
       <c r="O6">
-        <v>0.9849530505416068</v>
+        <v>1.006249912399535</v>
       </c>
       <c r="P6">
         <v>0.9999999999999998</v>
       </c>
       <c r="Q6">
-        <v>0.9874028954986526</v>
+        <v>1.015842622213607</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="S6">
-        <v>32.0235498371748</v>
+        <v>14.87564284421477</v>
       </c>
       <c r="T6">
-        <v>28.05051126229136</v>
+        <v>10.94375131595374</v>
       </c>
       <c r="U6">
-        <v>15.23576273473627</v>
+        <v>3.384439745292446</v>
       </c>
       <c r="V6">
-        <v>17.88824817558752</v>
+        <v>5.801972793062338</v>
       </c>
       <c r="W6">
-        <v>14.88771942067496</v>
+        <v>4.156878522963114</v>
       </c>
       <c r="X6">
-        <v>17.61657067083962</v>
+        <v>6.636056394328739</v>
       </c>
       <c r="Y6">
-        <v>6.260682048333295</v>
+        <v>-1.067292478507807</v>
       </c>
       <c r="Z6">
-        <v>9.019400676528008</v>
+        <v>1.4677876726324</v>
       </c>
       <c r="AA6">
-        <v>10.64505951317285</v>
+        <v>0.6938121590214805</v>
       </c>
       <c r="AB6">
-        <v>13.40848529674844</v>
+        <v>3.202337261075337</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>13.39564478626144</v>
+        <v>3.189496750588332</v>
       </c>
       <c r="AE6">
-        <v>13.39564478626144</v>
+        <v>3.189496750588332</v>
       </c>
       <c r="AF6">
-        <v>22.8012049423097</v>
+        <v>11.69600611718609</v>
       </c>
       <c r="AG6">
-        <v>27.25577863922591</v>
+        <v>15.65907737610207</v>
       </c>
       <c r="AH6">
-        <v>17.8100146448131</v>
+        <v>6.266439408601152</v>
       </c>
       <c r="AI6">
-        <v>17.90517855615354</v>
+        <v>6.358939090308333</v>
       </c>
       <c r="AJ6">
-        <v>66.76282415082973</v>
+        <v>34.23533234791009</v>
       </c>
       <c r="AK6">
-        <v>55.37272232606526</v>
+        <v>35.30657847169032</v>
       </c>
       <c r="AL6">
-        <v>1.96589422178667</v>
+        <v>2.061609100240107</v>
       </c>
       <c r="AM6">
-        <v>22.79132379503831</v>
+        <v>19.5699812510125</v>
       </c>
       <c r="AN6">
-        <v>36.95549271988376</v>
+        <v>15.47504931336183</v>
       </c>
       <c r="AO6">
-        <v>52.39433346553524</v>
+        <v>9.575536201214057</v>
       </c>
       <c r="AP6">
-        <v>46.79568006582271</v>
+        <v>45.23540201391468</v>
       </c>
       <c r="AQ6">
-        <v>7.316508021014783</v>
+        <v>4.023227464688834</v>
       </c>
       <c r="AR6">
-        <v>74.61423672309195</v>
+        <v>20.62424565028058</v>
       </c>
       <c r="AS6">
-        <v>47.14068950051271</v>
+        <v>30.68100540200475</v>
       </c>
       <c r="AT6">
-        <v>47.82567406320822</v>
+        <v>6.093200499011757</v>
       </c>
       <c r="AU6">
-        <v>48.09110416463049</v>
+        <v>3.407530689676861</v>
       </c>
       <c r="AV6">
-        <v>48.1328121968092</v>
+        <v>1.809569915909123</v>
       </c>
       <c r="AW6">
+        <v>0.0007820526549254715</v>
+      </c>
+      <c r="AX6">
+        <v>0.6161314109245097</v>
+      </c>
+      <c r="AY6">
+        <v>0.4936190849816171</v>
+      </c>
+      <c r="AZ6">
+        <v>0.1176612260146861</v>
+      </c>
+      <c r="BA6">
+        <v>2.111975205998988</v>
+      </c>
+      <c r="BB6">
+        <v>0.01172299355358142</v>
+      </c>
+      <c r="BC6">
+        <v>2.215256648253956</v>
+      </c>
+      <c r="BD6">
+        <v>3.047788103013715</v>
+      </c>
+      <c r="BE6">
+        <v>0.04281062987944662</v>
+      </c>
+      <c r="BF6">
+        <v>72.2363511212353</v>
+      </c>
+      <c r="BG6">
+        <v>44.97224249854804</v>
+      </c>
+      <c r="BH6">
+        <v>45.55053863084991</v>
+      </c>
+      <c r="BI6">
+        <v>46.0690712077506</v>
+      </c>
+      <c r="BJ6">
+        <v>45.8234404092043</v>
+      </c>
+      <c r="BK6">
         <v>0</v>
       </c>
-      <c r="AX6">
-        <v>78.59422513209951</v>
-      </c>
-      <c r="AY6">
-        <v>12.70476119879827</v>
+      <c r="BL6">
+        <v>69.65159596924362</v>
+      </c>
+      <c r="BM6">
+        <v>15.92596416367961</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:65">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.030938236370514</v>
+        <v>1.041619185562396</v>
       </c>
       <c r="D7">
-        <v>0.9565256583137361</v>
+        <v>1.002400500015761</v>
       </c>
       <c r="E7">
-        <v>0.9717468871862267</v>
+        <v>1.01683522162748</v>
       </c>
       <c r="F7">
-        <v>0.9427235225937524</v>
+        <v>0.9896064159299534</v>
       </c>
       <c r="G7">
-        <v>0.9581990689483019</v>
+        <v>1.004251911563351</v>
       </c>
       <c r="H7">
-        <v>0.937905935985328</v>
+        <v>0.9784413893254311</v>
       </c>
       <c r="I7">
-        <v>0.9534723359556981</v>
+        <v>0.9932760970954103</v>
       </c>
       <c r="J7">
-        <v>0.9368929411049817</v>
+        <v>0.9836640940585518</v>
       </c>
       <c r="K7">
-        <v>0.9524785856228049</v>
+        <v>0.998409667444805</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9538319049394371</v>
+        <v>0.9998282474625192</v>
       </c>
       <c r="N7">
-        <v>0.9538319049394371</v>
+        <v>0.9998282474625192</v>
       </c>
       <c r="O7">
-        <v>0.9849548887026019</v>
+        <v>1.006161041646144</v>
       </c>
       <c r="P7">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="Q7">
+        <v>1.015693590831094</v>
+      </c>
+      <c r="R7">
         <v>1</v>
       </c>
-      <c r="Q7">
-        <v>0.9874417642350741</v>
-      </c>
-      <c r="R7">
-        <v>0.9999999999999999</v>
-      </c>
       <c r="S7">
-        <v>31.58855279094785</v>
+        <v>14.73546506212223</v>
       </c>
       <c r="T7">
-        <v>27.61563088843379</v>
+        <v>10.80334662333442</v>
       </c>
       <c r="U7">
-        <v>14.76669736543004</v>
+        <v>3.210701738479443</v>
       </c>
       <c r="V7">
-        <v>17.45409244865797</v>
+        <v>5.661246329004786</v>
       </c>
       <c r="W7">
-        <v>14.37544635090344</v>
+        <v>3.931675163891263</v>
       </c>
       <c r="X7">
-        <v>17.14079940998494</v>
+        <v>6.445043692140895</v>
       </c>
       <c r="Y7">
-        <v>5.900064513107222</v>
+        <v>-1.237274303122041</v>
       </c>
       <c r="Z7">
-        <v>8.693423332191948</v>
+        <v>1.332901971017099</v>
       </c>
       <c r="AA7">
-        <v>10.19234943401276</v>
+        <v>0.4987356653156025</v>
       </c>
       <c r="AB7">
-        <v>12.99165078356178</v>
+        <v>3.042103008650114</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>12.97881027307477</v>
+        <v>3.029262498163114</v>
       </c>
       <c r="AE7">
-        <v>12.97881027307477</v>
+        <v>3.029262498163114</v>
       </c>
       <c r="AF7">
-        <v>22.32542204297383</v>
+        <v>11.50544667287485</v>
       </c>
       <c r="AG7">
-        <v>26.7799874098012</v>
+        <v>15.46886853566478</v>
       </c>
       <c r="AH7">
-        <v>17.36146569707024</v>
+        <v>6.089969512583026</v>
       </c>
       <c r="AI7">
-        <v>17.43573703232466</v>
+        <v>6.16217496691596</v>
       </c>
       <c r="AJ7">
-        <v>66.75360441461015</v>
+        <v>34.24302741034594</v>
       </c>
       <c r="AK7">
-        <v>55.1656047111216</v>
+        <v>35.55586720543049</v>
       </c>
       <c r="AL7">
-        <v>1.966278512454007</v>
+        <v>2.061097756270671</v>
       </c>
       <c r="AM7">
-        <v>22.48020129081435</v>
+        <v>19.3932564632103</v>
       </c>
       <c r="AN7">
-        <v>36.21277249559999</v>
+        <v>15.25455112291513</v>
       </c>
       <c r="AO7">
-        <v>50.69198037825247</v>
+        <v>8.947550692819188</v>
       </c>
       <c r="AP7">
-        <v>46.79536914801172</v>
+        <v>45.23224609679367</v>
       </c>
       <c r="AQ7">
-        <v>7.304732700502699</v>
+        <v>3.876057759708663</v>
       </c>
       <c r="AR7">
-        <v>74.60548356483174</v>
+        <v>20.15871165650609</v>
       </c>
       <c r="AS7">
-        <v>47.70942945646212</v>
+        <v>30.68823238533011</v>
       </c>
       <c r="AT7">
-        <v>48.40792907453616</v>
+        <v>6.084562656251853</v>
       </c>
       <c r="AU7">
-        <v>48.65657809348715</v>
+        <v>3.408752750044272</v>
       </c>
       <c r="AV7">
-        <v>48.70918694807595</v>
+        <v>1.83545601045347</v>
       </c>
       <c r="AW7">
+        <v>0.000781664755780643</v>
+      </c>
+      <c r="AX7">
+        <v>0.6050619938188788</v>
+      </c>
+      <c r="AY7">
+        <v>0.479356830380226</v>
+      </c>
+      <c r="AZ7">
+        <v>0.09876766423038319</v>
+      </c>
+      <c r="BA7">
+        <v>2.11185482491419</v>
+      </c>
+      <c r="BB7">
+        <v>0.01002167049634117</v>
+      </c>
+      <c r="BC7">
+        <v>2.110794815139087</v>
+      </c>
+      <c r="BD7">
+        <v>3.04888114703536</v>
+      </c>
+      <c r="BE7">
+        <v>0.04229153970973787</v>
+      </c>
+      <c r="BF7">
+        <v>72.24534719414423</v>
+      </c>
+      <c r="BG7">
+        <v>45.5260082351293</v>
+      </c>
+      <c r="BH7">
+        <v>46.11458927914359</v>
+      </c>
+      <c r="BI7">
+        <v>46.64080436139116</v>
+      </c>
+      <c r="BJ7">
+        <v>46.3931678448546</v>
+      </c>
+      <c r="BK7">
         <v>0</v>
       </c>
-      <c r="AX7">
-        <v>78.59380237077647</v>
-      </c>
-      <c r="AY7">
-        <v>12.62412465539911</v>
+      <c r="BL7">
+        <v>69.64673661894626</v>
+      </c>
+      <c r="BM7">
+        <v>15.74490008605197</v>
       </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:65">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1617,154 +1953,196 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031000088014572</v>
+        <v>1.041290448351652</v>
       </c>
       <c r="D8">
-        <v>0.9565948105806586</v>
+        <v>1.001503297730045</v>
       </c>
       <c r="E8">
-        <v>0.9719601700534066</v>
+        <v>1.016079471651358</v>
       </c>
       <c r="F8">
-        <v>0.9423200244641331</v>
+        <v>0.9884081556157653</v>
       </c>
       <c r="G8">
-        <v>0.9579551502388018</v>
+        <v>1.003205650961504</v>
       </c>
       <c r="H8">
-        <v>0.9391546760462169</v>
+        <v>0.977060473934229</v>
       </c>
       <c r="I8">
-        <v>0.9548509566691897</v>
+        <v>0.9920554688444064</v>
       </c>
       <c r="J8">
-        <v>0.9372421234914609</v>
+        <v>0.9821768233599742</v>
       </c>
       <c r="K8">
-        <v>0.9529755957324582</v>
+        <v>0.997082099140306</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9543296212207482</v>
+        <v>0.998498792896368</v>
       </c>
       <c r="N8">
-        <v>0.9543296212207482</v>
+        <v>0.998498792896368</v>
       </c>
       <c r="O8">
-        <v>0.9848415535498449</v>
+        <v>1.005699973570472</v>
       </c>
       <c r="P8">
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>0.98754482577421</v>
+        <v>1.014954341870254</v>
       </c>
       <c r="R8">
         <v>1</v>
       </c>
       <c r="S8">
-        <v>29.51838266612573</v>
+        <v>14.06178172350886</v>
       </c>
       <c r="T8">
-        <v>25.54569948940133</v>
+        <v>10.12841995456255</v>
       </c>
       <c r="U8">
-        <v>12.52183337411172</v>
+        <v>2.368115322269344</v>
       </c>
       <c r="V8">
-        <v>15.38564335631053</v>
+        <v>4.98455502918184</v>
       </c>
       <c r="W8">
-        <v>11.89962792036558</v>
+        <v>2.851438746982725</v>
       </c>
       <c r="X8">
-        <v>14.84939762698299</v>
+        <v>5.536613394367781</v>
       </c>
       <c r="Y8">
-        <v>4.1577254635404</v>
+        <v>-2.068740627927553</v>
       </c>
       <c r="Z8">
-        <v>7.127076556797679</v>
+        <v>0.6781971776487843</v>
       </c>
       <c r="AA8">
-        <v>8.012582461848158</v>
+        <v>-0.4516607945460444</v>
       </c>
       <c r="AB8">
-        <v>10.99385891826399</v>
+        <v>2.267170360543792</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>10.98101840777698</v>
+        <v>2.254329850056787</v>
       </c>
       <c r="AE8">
-        <v>10.98101840777698</v>
+        <v>2.254329850056787</v>
       </c>
       <c r="AF8">
-        <v>20.03473810216373</v>
+        <v>10.5993721069551</v>
       </c>
       <c r="AG8">
-        <v>24.48981713406225</v>
+        <v>14.56461392574414</v>
       </c>
       <c r="AH8">
-        <v>15.2784981715225</v>
+        <v>5.268181430445414</v>
       </c>
       <c r="AI8">
-        <v>15.33110153631904</v>
+        <v>5.319364206055368</v>
       </c>
       <c r="AJ8">
-        <v>66.73476700384509</v>
+        <v>34.28554236505647</v>
       </c>
       <c r="AK8">
-        <v>54.31714734238034</v>
+        <v>36.81339150606339</v>
       </c>
       <c r="AL8">
-        <v>1.967304530585753</v>
+        <v>2.058357149741187</v>
       </c>
       <c r="AM8">
-        <v>20.92287197483848</v>
+        <v>18.62326363666944</v>
       </c>
       <c r="AN8">
-        <v>32.67116568957243</v>
+        <v>14.21076582346703</v>
       </c>
       <c r="AO8">
-        <v>42.61981437029504</v>
+        <v>6.341939273910501</v>
       </c>
       <c r="AP8">
-        <v>46.81458209432476</v>
+        <v>45.21705771283958</v>
       </c>
       <c r="AQ8">
-        <v>7.27990886608092</v>
+        <v>3.323748715279696</v>
       </c>
       <c r="AR8">
-        <v>74.5876071039954</v>
+        <v>17.92842862793</v>
       </c>
       <c r="AS8">
-        <v>50.58114723755575</v>
+        <v>30.72813955225371</v>
       </c>
       <c r="AT8">
-        <v>51.34737849615101</v>
+        <v>6.045154692180408</v>
       </c>
       <c r="AU8">
-        <v>51.52044087600447</v>
+        <v>3.415528081724204</v>
       </c>
       <c r="AV8">
-        <v>51.62557438243763</v>
+        <v>1.968787114238495</v>
       </c>
       <c r="AW8">
+        <v>0.0007795874051548064</v>
+      </c>
+      <c r="AX8">
+        <v>0.5582367855084485</v>
+      </c>
+      <c r="AY8">
+        <v>0.4145803701952389</v>
+      </c>
+      <c r="AZ8">
+        <v>0.0342553418847249</v>
+      </c>
+      <c r="BA8">
+        <v>2.111341472685154</v>
+      </c>
+      <c r="BB8">
+        <v>0.004497692919143148</v>
+      </c>
+      <c r="BC8">
+        <v>1.643486398034526</v>
+      </c>
+      <c r="BD8">
+        <v>3.054941187917791</v>
+      </c>
+      <c r="BE8">
+        <v>0.03987837156061591</v>
+      </c>
+      <c r="BF8">
+        <v>72.29548993060382</v>
+      </c>
+      <c r="BG8">
+        <v>48.31303408618891</v>
+      </c>
+      <c r="BH8">
+        <v>48.95311990876739</v>
+      </c>
+      <c r="BI8">
+        <v>49.52166652063269</v>
+      </c>
+      <c r="BJ8">
+        <v>49.26369856207499</v>
+      </c>
+      <c r="BK8">
         <v>0</v>
       </c>
-      <c r="AX8">
-        <v>78.61994509799001</v>
-      </c>
-      <c r="AY8">
-        <v>12.48854585028531</v>
+      <c r="BL8">
+        <v>69.62335017524296</v>
+      </c>
+      <c r="BM8">
+        <v>14.98139757739249</v>
       </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:65">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1772,154 +2150,196 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.030929485898118</v>
+        <v>1.04079810916049</v>
       </c>
       <c r="D9">
-        <v>0.9561390755852539</v>
+        <v>1.000170906157041</v>
       </c>
       <c r="E9">
-        <v>0.971716713020306</v>
+        <v>1.014947612256082</v>
       </c>
       <c r="F9">
-        <v>0.9413107159018963</v>
+        <v>0.9867026938241606</v>
       </c>
       <c r="G9">
-        <v>0.9571787696936033</v>
+        <v>1.001715176861201</v>
       </c>
       <c r="H9">
-        <v>0.939833934287629</v>
+        <v>0.9750240804478827</v>
       </c>
       <c r="I9">
-        <v>0.9557315274548763</v>
+        <v>0.9902474237992245</v>
       </c>
       <c r="J9">
-        <v>0.936941873082859</v>
+        <v>0.980023904387147</v>
       </c>
       <c r="K9">
-        <v>0.9528976464283109</v>
+        <v>0.9951562271022676</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9542515611631409</v>
+        <v>0.9965701845030249</v>
       </c>
       <c r="N9">
-        <v>0.9542515611631409</v>
+        <v>0.9965701845030249</v>
       </c>
       <c r="O9">
-        <v>0.9844808128197235</v>
+        <v>1.005043146349667</v>
       </c>
       <c r="P9">
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>0.9873801629896718</v>
+        <v>1.013885810746502</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S9">
-        <v>26.85374705851427</v>
+        <v>13.18596143628436</v>
       </c>
       <c r="T9">
-        <v>22.88079137990792</v>
+        <v>9.25073609911809</v>
       </c>
       <c r="U9">
-        <v>9.621815895111075</v>
+        <v>1.269687836748269</v>
       </c>
       <c r="V9">
-        <v>12.71904317180415</v>
+        <v>4.104221428074526</v>
       </c>
       <c r="W9">
-        <v>8.694195264933029</v>
+        <v>1.443844801577326</v>
       </c>
       <c r="X9">
-        <v>11.88809418333675</v>
+        <v>4.355088783757739</v>
       </c>
       <c r="Y9">
-        <v>1.898261041295336</v>
+        <v>-3.155502937179524</v>
       </c>
       <c r="Z9">
-        <v>5.102032926102519</v>
+        <v>-0.1752091338019839</v>
       </c>
       <c r="AA9">
-        <v>5.190642142785642</v>
+        <v>-1.693061301276997</v>
       </c>
       <c r="AB9">
-        <v>8.413880902146639</v>
+        <v>1.25737541475026</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>8.401040391659629</v>
+        <v>1.244534904263254</v>
       </c>
       <c r="AE9">
-        <v>8.401040391659629</v>
+        <v>1.244534904263254</v>
       </c>
       <c r="AF9">
-        <v>17.07572291250828</v>
+        <v>9.421215608384573</v>
       </c>
       <c r="AG9">
-        <v>21.53243770710058</v>
+        <v>13.38905298631873</v>
       </c>
       <c r="AH9">
-        <v>12.59891446647844</v>
+        <v>4.201981867000101</v>
       </c>
       <c r="AI9">
-        <v>12.63450502724907</v>
+        <v>4.236641996578319</v>
       </c>
       <c r="AJ9">
-        <v>66.75627258408181</v>
+        <v>34.35037114957601</v>
       </c>
       <c r="AK9">
-        <v>53.28017079362637</v>
+        <v>38.47349907774088</v>
       </c>
       <c r="AL9">
-        <v>1.967143613538428</v>
+        <v>2.054381416466701</v>
       </c>
       <c r="AM9">
-        <v>18.88972481935205</v>
+        <v>17.63236754775829</v>
       </c>
       <c r="AN9">
-        <v>28.09519814360608</v>
+        <v>12.86396014963423</v>
       </c>
       <c r="AO9">
-        <v>32.618984388672</v>
+        <v>5.422742275429268</v>
       </c>
       <c r="AP9">
-        <v>46.8763135416364</v>
+        <v>45.19885442702955</v>
       </c>
       <c r="AQ9">
-        <v>7.313900496335954</v>
+        <v>2.805678438473292</v>
       </c>
       <c r="AR9">
-        <v>74.60801645517483</v>
+        <v>15.06452239386224</v>
       </c>
       <c r="AS9">
-        <v>54.37784859140646</v>
+        <v>30.78892398188687</v>
       </c>
       <c r="AT9">
-        <v>55.23445659989807</v>
+        <v>6.030308964439101</v>
       </c>
       <c r="AU9">
-        <v>55.32124770948133</v>
+        <v>3.425933702611303</v>
       </c>
       <c r="AV9">
-        <v>55.49200796568975</v>
+        <v>2.151849977400985</v>
       </c>
       <c r="AW9">
+        <v>0.0007765787550176873</v>
+      </c>
+      <c r="AX9">
+        <v>0.501041575876144</v>
+      </c>
+      <c r="AY9">
+        <v>0.3376467724934287</v>
+      </c>
+      <c r="AZ9">
+        <v>0.01768998723934523</v>
+      </c>
+      <c r="BA9">
+        <v>2.110932162627108</v>
+      </c>
+      <c r="BB9">
+        <v>0.0006988399029037584</v>
+      </c>
+      <c r="BC9">
+        <v>1.123208266052472</v>
+      </c>
+      <c r="BD9">
+        <v>3.064248258178623</v>
+      </c>
+      <c r="BE9">
+        <v>0.03863410635462583</v>
+      </c>
+      <c r="BF9">
+        <v>72.37332832101941</v>
+      </c>
+      <c r="BG9">
+        <v>51.98390151566623</v>
+      </c>
+      <c r="BH9">
+        <v>52.69346704932366</v>
+      </c>
+      <c r="BI9">
+        <v>53.32461723470372</v>
+      </c>
+      <c r="BJ9">
+        <v>53.05256907688979</v>
+      </c>
+      <c r="BK9">
         <v>0</v>
       </c>
-      <c r="AX9">
-        <v>78.7041916125243</v>
-      </c>
-      <c r="AY9">
-        <v>12.63492271285927</v>
+      <c r="BL9">
+        <v>69.59532151069928</v>
+      </c>
+      <c r="BM9">
+        <v>13.89916421608047</v>
       </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:65">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1927,154 +2347,196 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.030665574561717</v>
+        <v>1.04019002370672</v>
       </c>
       <c r="D10">
-        <v>0.9549698366773222</v>
+        <v>0.9985374059222765</v>
       </c>
       <c r="E10">
-        <v>0.9708066778914637</v>
+        <v>1.013549664097856</v>
       </c>
       <c r="F10">
-        <v>0.9396232870253717</v>
+        <v>0.9846945591332319</v>
       </c>
       <c r="G10">
-        <v>0.955773450617952</v>
+        <v>0.999959003684872</v>
       </c>
       <c r="H10">
-        <v>0.9393850852025495</v>
+        <v>0.9725423043384038</v>
       </c>
       <c r="I10">
-        <v>0.9555402133970845</v>
+        <v>0.9880354975713577</v>
       </c>
       <c r="J10">
-        <v>0.9356781270597953</v>
+        <v>0.9774451241997897</v>
       </c>
       <c r="K10">
-        <v>0.9519109253945407</v>
+        <v>0.9928451782888842</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9532634381570265</v>
+        <v>0.9942558520599114</v>
       </c>
       <c r="N10">
-        <v>0.9532634381570265</v>
+        <v>0.9942558520599114</v>
       </c>
       <c r="O10">
-        <v>0.9838278361641843</v>
+        <v>1.00426922644524</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Q10">
-        <v>0.9868373306033251</v>
+        <v>1.012611839631158</v>
       </c>
       <c r="R10">
         <v>1</v>
       </c>
       <c r="S10">
-        <v>24.03541759377775</v>
+        <v>12.25214670554325</v>
       </c>
       <c r="T10">
-        <v>20.06144296932424</v>
+        <v>8.314617244685106</v>
       </c>
       <c r="U10">
-        <v>6.540981979581068</v>
+        <v>0.09419689044312687</v>
       </c>
       <c r="V10">
-        <v>9.893361369948261</v>
+        <v>3.164818400393517</v>
       </c>
       <c r="W10">
-        <v>5.278830595951781</v>
+        <v>-0.06095055262280674</v>
       </c>
       <c r="X10">
-        <v>8.739683465209371</v>
+        <v>3.095243360482408</v>
       </c>
       <c r="Y10">
-        <v>-0.513693803062615</v>
+        <v>-4.322651249611235</v>
       </c>
       <c r="Z10">
-        <v>2.948883713045395</v>
+        <v>-1.088373102863981</v>
       </c>
       <c r="AA10">
-        <v>2.184087123494599</v>
+        <v>-3.025023366117031</v>
       </c>
       <c r="AB10">
-        <v>5.673669748990878</v>
+        <v>0.1774090987314672</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>5.660829238503879</v>
+        <v>0.1645685882444623</v>
       </c>
       <c r="AE10">
-        <v>5.660829238503879</v>
+        <v>0.1645685882444623</v>
       </c>
       <c r="AF10">
-        <v>13.93146733757556</v>
+        <v>8.165357202146572</v>
       </c>
       <c r="AG10">
-        <v>18.39114608570663</v>
+        <v>12.13625721742936</v>
       </c>
       <c r="AH10">
-        <v>9.770271468906182</v>
+        <v>3.069558404762506</v>
       </c>
       <c r="AI10">
-        <v>9.806655740620711</v>
+        <v>3.105016569528294</v>
       </c>
       <c r="AJ10">
-        <v>66.83710925855047</v>
+        <v>34.43234305457347</v>
       </c>
       <c r="AK10">
-        <v>52.26469432036739</v>
+        <v>40.27852548874864</v>
       </c>
       <c r="AL10">
-        <v>1.965106645572861</v>
+        <v>2.049610531649281</v>
       </c>
       <c r="AM10">
-        <v>16.70155771983573</v>
+        <v>16.59491545065596</v>
       </c>
       <c r="AN10">
-        <v>23.24520127135043</v>
+        <v>11.44568445968859</v>
       </c>
       <c r="AO10">
-        <v>23.26701087303505</v>
+        <v>8.332386151737364</v>
       </c>
       <c r="AP10">
-        <v>46.99027963033924</v>
+        <v>45.18259008581452</v>
       </c>
       <c r="AQ10">
-        <v>7.430772593029224</v>
+        <v>2.613719980924837</v>
       </c>
       <c r="AR10">
-        <v>74.68485134400412</v>
+        <v>12.08836677320295</v>
       </c>
       <c r="AS10">
-        <v>58.51263787093552</v>
+        <v>30.86567188082722</v>
       </c>
       <c r="AT10">
-        <v>59.46830501408994</v>
+        <v>6.063701986868708</v>
       </c>
       <c r="AU10">
-        <v>59.48338451543354</v>
+        <v>3.439213400005286</v>
       </c>
       <c r="AV10">
-        <v>59.71904505960052</v>
+        <v>2.359996266045584</v>
       </c>
       <c r="AW10">
+        <v>0.0007729760493234191</v>
+      </c>
+      <c r="AX10">
+        <v>0.4448782243488125</v>
+      </c>
+      <c r="AY10">
+        <v>0.264724528762784</v>
+      </c>
+      <c r="AZ10">
+        <v>0.08468627126285</v>
+      </c>
+      <c r="BA10">
+        <v>2.110935471096212</v>
+      </c>
+      <c r="BB10">
+        <v>0.0006299116260652937</v>
+      </c>
+      <c r="BC10">
+        <v>0.6776025934302226</v>
+      </c>
+      <c r="BD10">
+        <v>3.076125980616013</v>
+      </c>
+      <c r="BE10">
+        <v>0.03985772550817135</v>
+      </c>
+      <c r="BF10">
+        <v>72.47398943630748</v>
+      </c>
+      <c r="BG10">
+        <v>55.95965048455673</v>
+      </c>
+      <c r="BH10">
+        <v>56.74633185782246</v>
+      </c>
+      <c r="BI10">
+        <v>57.45539703712819</v>
+      </c>
+      <c r="BJ10">
+        <v>57.16720340378433</v>
+      </c>
+      <c r="BK10">
         <v>0</v>
       </c>
-      <c r="AX10">
-        <v>78.86068024060714</v>
-      </c>
-      <c r="AY10">
-        <v>13.17777731147958</v>
+      <c r="BL10">
+        <v>69.57027835262879</v>
+      </c>
+      <c r="BM10">
+        <v>12.62720550663526</v>
       </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:65">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2082,154 +2544,196 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030243176121973</v>
+        <v>1.039550615385859</v>
       </c>
       <c r="D11">
-        <v>0.9532413021732851</v>
+        <v>0.9968289049403305</v>
       </c>
       <c r="E11">
-        <v>0.9693501688982777</v>
+        <v>1.012079712996925</v>
       </c>
       <c r="F11">
-        <v>0.937480821039104</v>
+        <v>0.9826653702302915</v>
       </c>
       <c r="G11">
-        <v>0.9539251362924964</v>
+        <v>0.998184431518097</v>
       </c>
       <c r="H11">
-        <v>0.9378680142105024</v>
+        <v>0.9699562298420754</v>
       </c>
       <c r="I11">
-        <v>0.9543039151176766</v>
+        <v>0.9857244686179566</v>
       </c>
       <c r="J11">
-        <v>0.933614670153693</v>
+        <v>0.974794661140972</v>
       </c>
       <c r="K11">
-        <v>0.9501434948478052</v>
+        <v>0.9904670651862726</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9514934963749354</v>
+        <v>0.9918743600399704</v>
       </c>
       <c r="N11">
-        <v>0.9514934963749354</v>
+        <v>0.9918743600399704</v>
       </c>
       <c r="O11">
-        <v>0.982969016835833</v>
+        <v>1.0034871944929</v>
       </c>
       <c r="P11">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q11">
-        <v>0.9860134090783298</v>
+        <v>1.011324382543641</v>
       </c>
       <c r="R11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>21.46401702960631</v>
+        <v>11.39606483561363</v>
       </c>
       <c r="T11">
-        <v>17.48841046106376</v>
+        <v>7.456109649850688</v>
       </c>
       <c r="U11">
-        <v>3.715064305778731</v>
+        <v>-0.9895609517618646</v>
       </c>
       <c r="V11">
-        <v>7.310164409497314</v>
+        <v>2.302843708987748</v>
       </c>
       <c r="W11">
-        <v>2.130267756884688</v>
+        <v>-1.443310179780318</v>
       </c>
       <c r="X11">
-        <v>5.845082367791552</v>
+        <v>1.943149900598114</v>
       </c>
       <c r="Y11">
-        <v>-2.740788027581889</v>
+        <v>-5.404607945690857</v>
       </c>
       <c r="Z11">
-        <v>0.9710148663773172</v>
+        <v>-1.930302301667615</v>
       </c>
       <c r="AA11">
-        <v>-0.585531378297666</v>
+        <v>-4.257515433066311</v>
       </c>
       <c r="AB11">
-        <v>3.159555903224377</v>
+        <v>-0.8170487674356601</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>3.146715392737373</v>
+        <v>-0.8298892779226661</v>
       </c>
       <c r="AE11">
-        <v>3.146715392737373</v>
+        <v>-0.8298892779226661</v>
       </c>
       <c r="AF11">
-        <v>11.04235720629803</v>
+        <v>7.017312964044496</v>
       </c>
       <c r="AG11">
-        <v>15.50594027082006</v>
+        <v>10.99131252862828</v>
       </c>
       <c r="AH11">
-        <v>7.210587821734541</v>
+        <v>2.043315796110722</v>
       </c>
       <c r="AI11">
-        <v>7.288065871488072</v>
+        <v>2.118854758815516</v>
       </c>
       <c r="AJ11">
-        <v>66.9679589788378</v>
+        <v>34.52078950929624</v>
       </c>
       <c r="AK11">
-        <v>51.45513248779181</v>
+        <v>41.98122474894308</v>
       </c>
       <c r="AL11">
-        <v>1.961457995872075</v>
+        <v>2.044701200600195</v>
       </c>
       <c r="AM11">
-        <v>14.65261436827875</v>
+        <v>15.69923320253776</v>
       </c>
       <c r="AN11">
-        <v>18.82689766790289</v>
+        <v>10.17115816379945</v>
       </c>
       <c r="AO11">
-        <v>17.77087176644873</v>
+        <v>12.39633190638007</v>
       </c>
       <c r="AP11">
-        <v>47.14450799607322</v>
+        <v>45.1718579050378</v>
       </c>
       <c r="AQ11">
-        <v>7.61239762517926</v>
+        <v>2.774470328129445</v>
       </c>
       <c r="AR11">
-        <v>74.80961091381533</v>
+        <v>9.495345406321675</v>
       </c>
       <c r="AS11">
-        <v>62.42020257549663</v>
+        <v>30.94835369764935</v>
       </c>
       <c r="AT11">
-        <v>63.46958129664476</v>
+        <v>6.145886705858554</v>
       </c>
       <c r="AU11">
-        <v>63.44337826157239</v>
+        <v>3.453687069192966</v>
       </c>
       <c r="AV11">
-        <v>63.73241240435033</v>
+        <v>2.5650377793134</v>
       </c>
       <c r="AW11">
+        <v>0.0007692775412801439</v>
+      </c>
+      <c r="AX11">
+        <v>0.3989090108361495</v>
+      </c>
+      <c r="AY11">
+        <v>0.2062727093361332</v>
+      </c>
+      <c r="AZ11">
+        <v>0.2241497627246929</v>
+      </c>
+      <c r="BA11">
+        <v>2.111472435078355</v>
+      </c>
+      <c r="BB11">
+        <v>0.003656022819582105</v>
+      </c>
+      <c r="BC11">
+        <v>0.3683897162180187</v>
+      </c>
+      <c r="BD11">
+        <v>3.089071623890987</v>
+      </c>
+      <c r="BE11">
+        <v>0.04369830775862127</v>
+      </c>
+      <c r="BF11">
+        <v>72.5852062720561</v>
+      </c>
+      <c r="BG11">
+        <v>59.69080038720227</v>
+      </c>
+      <c r="BH11">
+        <v>60.55114689860529</v>
+      </c>
+      <c r="BI11">
+        <v>61.34453633508232</v>
+      </c>
+      <c r="BJ11">
+        <v>61.04005033772111</v>
+      </c>
+      <c r="BK11">
         <v>0</v>
       </c>
-      <c r="AX11">
-        <v>79.07428947454204</v>
-      </c>
-      <c r="AY11">
-        <v>14.05089755044798</v>
+      <c r="BL11">
+        <v>69.55375338576539</v>
+      </c>
+      <c r="BM11">
+        <v>11.40173283904723</v>
       </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:65">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2237,154 +2741,196 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029897981836555</v>
+        <v>1.039118944317357</v>
       </c>
       <c r="D12">
-        <v>0.9518670579809445</v>
+        <v>0.9956792140043619</v>
       </c>
       <c r="E12">
-        <v>0.9681599027528011</v>
+        <v>1.011087337683789</v>
       </c>
       <c r="F12">
-        <v>0.9358807064314524</v>
+        <v>0.981328094283781</v>
       </c>
       <c r="G12">
-        <v>0.9525231713247795</v>
+        <v>0.9970148685704433</v>
       </c>
       <c r="H12">
-        <v>0.936409908665627</v>
+        <v>0.9682201168543937</v>
       </c>
       <c r="I12">
-        <v>0.9530405517808755</v>
+        <v>0.9841706886943885</v>
       </c>
       <c r="J12">
-        <v>0.9319169484630949</v>
+        <v>0.9730309265432034</v>
       </c>
       <c r="K12">
-        <v>0.9486485145462517</v>
+        <v>0.9888836205244217</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9499963919461305</v>
+        <v>0.9902886655571996</v>
       </c>
       <c r="N12">
-        <v>0.9499963919461305</v>
+        <v>0.9902886655571996</v>
       </c>
       <c r="O12">
-        <v>0.9823175888281362</v>
+        <v>1.002971780455055</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Q12">
-        <v>0.9853431160182277</v>
+        <v>1.010471497927078</v>
       </c>
       <c r="R12">
         <v>1</v>
       </c>
       <c r="S12">
-        <v>19.8817392834394</v>
+        <v>10.86900268922653</v>
       </c>
       <c r="T12">
-        <v>15.9047980540745</v>
+        <v>6.927408179873583</v>
       </c>
       <c r="U12">
-        <v>1.969885337646069</v>
+        <v>-1.65906936987456</v>
       </c>
       <c r="V12">
-        <v>5.718219988963376</v>
+        <v>1.771793560612468</v>
       </c>
       <c r="W12">
-        <v>0.1806544145417555</v>
+        <v>-2.296180595730837</v>
       </c>
       <c r="X12">
-        <v>4.05579108246606</v>
+        <v>1.234113428137065</v>
       </c>
       <c r="Y12">
-        <v>-4.121866492790263</v>
+        <v>-6.075261766493287</v>
       </c>
       <c r="Z12">
-        <v>-0.2510288840133507</v>
+        <v>-2.450352440423255</v>
       </c>
       <c r="AA12">
-        <v>-2.300658672658784</v>
+        <v>-5.020772215280128</v>
       </c>
       <c r="AB12">
-        <v>1.606905259253014</v>
+        <v>-1.431021804295958</v>
       </c>
       <c r="AC12">
         <v>0</v>
       </c>
       <c r="AD12">
-        <v>1.594064748766011</v>
+        <v>-1.443862314782963</v>
       </c>
       <c r="AE12">
-        <v>1.594064748766011</v>
+        <v>-1.443862314782963</v>
       </c>
       <c r="AF12">
-        <v>9.257250689430641</v>
+        <v>6.310956492127855</v>
       </c>
       <c r="AG12">
-        <v>13.72379980648851</v>
+        <v>10.28700152659292</v>
       </c>
       <c r="AH12">
-        <v>5.63998018828551</v>
+        <v>1.414386936483377</v>
       </c>
       <c r="AI12">
-        <v>5.753950438929084</v>
+        <v>1.525522973962314</v>
       </c>
       <c r="AJ12">
-        <v>67.07622799656716</v>
+        <v>34.58179729096106</v>
       </c>
       <c r="AK12">
-        <v>51.00326690052118</v>
+        <v>43.04717365595067</v>
       </c>
       <c r="AL12">
-        <v>1.958371787229045</v>
+        <v>2.041432367829344</v>
       </c>
       <c r="AM12">
-        <v>13.37503502735867</v>
+        <v>15.21869225161653</v>
       </c>
       <c r="AN12">
-        <v>16.12112260733948</v>
+        <v>9.400839536070919</v>
       </c>
       <c r="AO12">
-        <v>17.28154641797525</v>
+        <v>15.11201061308015</v>
       </c>
       <c r="AP12">
-        <v>47.2647511711249</v>
+        <v>45.16792074697999</v>
       </c>
       <c r="AQ12">
-        <v>7.762910711544969</v>
+        <v>3.179290415462656</v>
       </c>
       <c r="AR12">
-        <v>74.91319043908663</v>
+        <v>8.022583869363215</v>
       </c>
       <c r="AS12">
-        <v>64.87074182156826</v>
+        <v>31.00531304311946</v>
       </c>
       <c r="AT12">
-        <v>65.97883869428854</v>
+        <v>6.222883828824731</v>
       </c>
       <c r="AU12">
-        <v>65.94155144591345</v>
+        <v>3.463753966268342</v>
       </c>
       <c r="AV12">
-        <v>66.25946901016461</v>
+        <v>2.697699214392571</v>
       </c>
       <c r="AW12">
+        <v>0.0007668198427149927</v>
+      </c>
+      <c r="AX12">
+        <v>0.3727009594934003</v>
+      </c>
+      <c r="AY12">
+        <v>0.1741885476160547</v>
+      </c>
+      <c r="AZ12">
+        <v>0.3475080110199542</v>
+      </c>
+      <c r="BA12">
+        <v>2.112119598272216</v>
+      </c>
+      <c r="BB12">
+        <v>0.006802289676665296</v>
+      </c>
+      <c r="BC12">
+        <v>0.2254508018427472</v>
+      </c>
+      <c r="BD12">
+        <v>3.098075730364116</v>
+      </c>
+      <c r="BE12">
+        <v>0.04750528092702844</v>
+      </c>
+      <c r="BF12">
+        <v>72.66339045831796</v>
+      </c>
+      <c r="BG12">
+        <v>62.01628124624797</v>
+      </c>
+      <c r="BH12">
+        <v>62.92321857126134</v>
+      </c>
+      <c r="BI12">
+        <v>63.77508697851575</v>
+      </c>
+      <c r="BJ12">
+        <v>63.45977345869702</v>
+      </c>
+      <c r="BK12">
         <v>0</v>
       </c>
-      <c r="AX12">
-        <v>79.24217789001635</v>
-      </c>
-      <c r="AY12">
-        <v>14.78928650550313</v>
+      <c r="BL12">
+        <v>69.54769111307414</v>
+      </c>
+      <c r="BM12">
+        <v>10.65148168008417</v>
       </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:65">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2392,154 +2938,196 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029732012635269</v>
+        <v>1.038932697618035</v>
       </c>
       <c r="D13">
-        <v>0.9512142647070668</v>
+        <v>0.9951833905091342</v>
       </c>
       <c r="E13">
-        <v>0.9675876326600698</v>
+        <v>1.01065917316919</v>
       </c>
       <c r="F13">
-        <v>0.9351418735681195</v>
+        <v>0.980762427032512</v>
       </c>
       <c r="G13">
-        <v>0.9518708605241295</v>
+        <v>0.9965211760827114</v>
       </c>
       <c r="H13">
-        <v>0.9356699586568331</v>
+        <v>0.9674701294143907</v>
       </c>
       <c r="I13">
-        <v>0.9523870076722141</v>
+        <v>0.983499358836838</v>
       </c>
       <c r="J13">
-        <v>0.9310968487249891</v>
+        <v>0.9722719717783654</v>
       </c>
       <c r="K13">
-        <v>0.9479178652187008</v>
+        <v>0.9882023884295916</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.949264704483063</v>
+        <v>0.989606465540815</v>
       </c>
       <c r="N13">
-        <v>0.949264704483063</v>
+        <v>0.989606465540815</v>
       </c>
       <c r="O13">
-        <v>0.9820144888380606</v>
+        <v>1.002754214875611</v>
       </c>
       <c r="P13">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>0.9850538012424445</v>
+        <v>1.010126609985872</v>
       </c>
       <c r="R13">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>19.25715232595923</v>
+        <v>10.66025233056332</v>
       </c>
       <c r="T13">
-        <v>15.27956907317268</v>
+        <v>6.71795010495816</v>
       </c>
       <c r="U13">
-        <v>1.27599362923816</v>
+        <v>-1.92745921940605</v>
       </c>
       <c r="V13">
-        <v>5.088976828589076</v>
+        <v>1.56132013711641</v>
       </c>
       <c r="W13">
-        <v>-0.6045629392737302</v>
+        <v>-2.633070391287975</v>
       </c>
       <c r="X13">
-        <v>3.338195934920428</v>
+        <v>0.957362921365961</v>
       </c>
       <c r="Y13">
-        <v>-4.677572096331237</v>
+        <v>-6.347123750062537</v>
       </c>
       <c r="Z13">
-        <v>-0.7391809469734668</v>
+        <v>-2.659035994438325</v>
       </c>
       <c r="AA13">
-        <v>-2.988223369224996</v>
+        <v>-5.328611306158456</v>
       </c>
       <c r="AB13">
-        <v>0.988231652786227</v>
+        <v>-1.676252442570577</v>
       </c>
       <c r="AC13">
         <v>0</v>
       </c>
       <c r="AD13">
-        <v>0.975391142299223</v>
+        <v>-1.689092953057579</v>
       </c>
       <c r="AE13">
-        <v>0.975391142299223</v>
+        <v>-1.689092953057579</v>
       </c>
       <c r="AF13">
-        <v>8.541608498736958</v>
+        <v>6.035339962166706</v>
       </c>
       <c r="AG13">
-        <v>13.00953902248501</v>
+        <v>10.01224905909533</v>
       </c>
       <c r="AH13">
-        <v>5.042202274880084</v>
+        <v>1.176435874373005</v>
       </c>
       <c r="AI13">
-        <v>5.20351377370903</v>
+        <v>1.333743377455142</v>
       </c>
       <c r="AJ13">
-        <v>67.1287093954483</v>
+        <v>34.60844052218935</v>
       </c>
       <c r="AK13">
-        <v>50.8841472112537</v>
+        <v>43.49415692233179</v>
       </c>
       <c r="AL13">
-        <v>1.956863448779541</v>
+        <v>2.040026045366482</v>
       </c>
       <c r="AM13">
-        <v>12.84009412529919</v>
+        <v>15.06429915239231</v>
       </c>
       <c r="AN13">
-        <v>15.05932818105669</v>
+        <v>9.104293941124318</v>
       </c>
       <c r="AO13">
-        <v>17.8429697953913</v>
+        <v>16.22680036262248</v>
       </c>
       <c r="AP13">
-        <v>47.32165009766008</v>
+        <v>45.16700690314345</v>
       </c>
       <c r="AQ13">
-        <v>7.836839766022901</v>
+        <v>3.312887403387394</v>
       </c>
       <c r="AR13">
-        <v>74.96350911773601</v>
+        <v>7.478690813961897</v>
       </c>
       <c r="AS13">
-        <v>65.89963133416175</v>
+        <v>31.03017069750441</v>
       </c>
       <c r="AT13">
-        <v>67.03225589162463</v>
+        <v>6.265547032899639</v>
       </c>
       <c r="AU13">
-        <v>66.99442339046148</v>
+        <v>3.468170953259602</v>
       </c>
       <c r="AV13">
-        <v>67.32346849828733</v>
+        <v>2.754312755848957</v>
       </c>
       <c r="AW13">
+        <v>0.0007657636973785836</v>
+      </c>
+      <c r="AX13">
+        <v>0.3643074351079605</v>
+      </c>
+      <c r="AY13">
+        <v>0.1624909191394224</v>
+      </c>
+      <c r="AZ13">
+        <v>0.4051015648270209</v>
+      </c>
+      <c r="BA13">
+        <v>2.11246271369842</v>
+      </c>
+      <c r="BB13">
+        <v>0.007855972223190122</v>
+      </c>
+      <c r="BC13">
+        <v>0.178763158683175</v>
+      </c>
+      <c r="BD13">
+        <v>3.102026403631498</v>
+      </c>
+      <c r="BE13">
+        <v>0.04968584704596068</v>
+      </c>
+      <c r="BF13">
+        <v>72.69789280081248</v>
+      </c>
+      <c r="BG13">
+        <v>62.98805824313669</v>
+      </c>
+      <c r="BH13">
+        <v>63.91422391012281</v>
+      </c>
+      <c r="BI13">
+        <v>64.79235633035466</v>
+      </c>
+      <c r="BJ13">
+        <v>64.47236080387678</v>
+      </c>
+      <c r="BK13">
         <v>0</v>
       </c>
-      <c r="AX13">
-        <v>79.32200786566349</v>
-      </c>
-      <c r="AY13">
-        <v>15.20516200669285</v>
+      <c r="BL13">
+        <v>69.54628401423456</v>
+      </c>
+      <c r="BM13">
+        <v>10.49583322941859</v>
       </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:65">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2547,154 +3135,196 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029468933947129</v>
+        <v>1.038649982044948</v>
       </c>
       <c r="D14">
-        <v>0.9501847645501733</v>
+        <v>0.9944314966171059</v>
       </c>
       <c r="E14">
-        <v>0.9666805364066263</v>
+        <v>1.010009236388353</v>
       </c>
       <c r="F14">
-        <v>0.9339919413023386</v>
+        <v>0.979908580601759</v>
       </c>
       <c r="G14">
-        <v>0.950852304252803</v>
+        <v>0.9957757833575678</v>
       </c>
       <c r="H14">
-        <v>0.9344647620240671</v>
+        <v>0.9663339846663593</v>
       </c>
       <c r="I14">
-        <v>0.9513142434621884</v>
+        <v>0.9824819991385071</v>
       </c>
       <c r="J14">
-        <v>0.9297956980587405</v>
+        <v>0.9711253845064711</v>
       </c>
       <c r="K14">
-        <v>0.9467532725852938</v>
+        <v>0.9871731151472107</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9480984571502957</v>
+        <v>0.9885757298261694</v>
       </c>
       <c r="N14">
-        <v>0.9480984571502957</v>
+        <v>0.9885757298261694</v>
       </c>
       <c r="O14">
-        <v>0.981541208911291</v>
+        <v>1.002425726816895</v>
       </c>
       <c r="P14">
         <v>0.9999999999999999</v>
       </c>
       <c r="Q14">
-        <v>0.9845844532269934</v>
+        <v>1.009600938180786</v>
       </c>
       <c r="R14">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>18.33200814710543</v>
+        <v>10.35156249380428</v>
       </c>
       <c r="T14">
-        <v>14.35340679432582</v>
+        <v>6.408185495005156</v>
       </c>
       <c r="U14">
-        <v>0.2475191551875115</v>
+        <v>-2.324300849545694</v>
       </c>
       <c r="V14">
-        <v>4.156440774707347</v>
+        <v>1.250011957240204</v>
       </c>
       <c r="W14">
-        <v>-1.767674707955396</v>
+        <v>-3.131958372794932</v>
       </c>
       <c r="X14">
-        <v>2.275433286245345</v>
+        <v>0.5473182808593865</v>
       </c>
       <c r="Y14">
-        <v>-5.501404675452265</v>
+        <v>-6.749119600056654</v>
       </c>
       <c r="Z14">
-        <v>-1.462311329190716</v>
+        <v>-2.967528683809925</v>
       </c>
       <c r="AA14">
-        <v>-4.007495378676915</v>
+        <v>-5.783938689557322</v>
       </c>
       <c r="AB14">
-        <v>0.07150378561852117</v>
+        <v>-2.038939728250782</v>
       </c>
       <c r="AC14">
         <v>0</v>
       </c>
       <c r="AD14">
-        <v>0.05866327513151171</v>
+        <v>-2.051780238737786</v>
       </c>
       <c r="AE14">
-        <v>0.05866327513151171</v>
+        <v>-2.051780238737786</v>
       </c>
       <c r="AF14">
-        <v>7.481902773424478</v>
+        <v>5.627010484604454</v>
       </c>
       <c r="AG14">
-        <v>11.95199202628804</v>
+        <v>9.605224885384095</v>
       </c>
       <c r="AH14">
-        <v>4.153206632142314</v>
+        <v>0.8229883508001192</v>
       </c>
       <c r="AI14">
-        <v>4.380547312332942</v>
+        <v>1.044695821633809</v>
       </c>
       <c r="AJ14">
-        <v>67.21246229652461</v>
+        <v>34.64925251879688</v>
       </c>
       <c r="AK14">
-        <v>50.70855171761631</v>
+        <v>44.154799943965</v>
       </c>
       <c r="AL14">
-        <v>1.954459286097954</v>
+        <v>2.037901233356094</v>
       </c>
       <c r="AM14">
-        <v>12.05017448258703</v>
+        <v>14.83452400328011</v>
       </c>
       <c r="AN14">
-        <v>13.49435321158096</v>
+        <v>8.669098974049474</v>
       </c>
       <c r="AO14">
-        <v>19.36193024915877</v>
+        <v>17.88981776719508</v>
       </c>
       <c r="AP14">
-        <v>47.41169742655574</v>
+        <v>45.16646870603132</v>
       </c>
       <c r="AQ14">
-        <v>7.960377875954763</v>
+        <v>3.520556446271863</v>
       </c>
       <c r="AR14">
-        <v>75.04395617146403</v>
+        <v>6.736139022983659</v>
       </c>
       <c r="AS14">
-        <v>67.42169235194963</v>
+        <v>31.06822760542106</v>
       </c>
       <c r="AT14">
-        <v>68.5905970277252</v>
+        <v>6.335381877183385</v>
       </c>
       <c r="AU14">
-        <v>68.55589153971917</v>
+        <v>3.474960534516953</v>
       </c>
       <c r="AV14">
-        <v>68.90015194387804</v>
+        <v>2.839054310667393</v>
       </c>
       <c r="AW14">
+        <v>0.0007641693487528526</v>
+      </c>
+      <c r="AX14">
+        <v>0.3519494850294151</v>
+      </c>
+      <c r="AY14">
+        <v>0.1459773916866354</v>
+      </c>
+      <c r="AZ14">
+        <v>0.498606282821946</v>
+      </c>
+      <c r="BA14">
+        <v>2.113059425399115</v>
+      </c>
+      <c r="BB14">
+        <v>0.009628270924553206</v>
+      </c>
+      <c r="BC14">
+        <v>0.120181833010232</v>
+      </c>
+      <c r="BD14">
+        <v>3.108099189723561</v>
+      </c>
+      <c r="BE14">
+        <v>0.05331200710091721</v>
+      </c>
+      <c r="BF14">
+        <v>72.75115040308498</v>
+      </c>
+      <c r="BG14">
+        <v>64.4217978723961</v>
+      </c>
+      <c r="BH14">
+        <v>65.37657302038376</v>
+      </c>
+      <c r="BI14">
+        <v>66.29495173465335</v>
+      </c>
+      <c r="BJ14">
+        <v>65.96786150901474</v>
+      </c>
+      <c r="BK14">
         <v>0</v>
       </c>
-      <c r="AX14">
-        <v>79.44882605820204</v>
-      </c>
-      <c r="AY14">
-        <v>15.91037850492716</v>
+      <c r="BL14">
+        <v>69.54545532064199</v>
+      </c>
+      <c r="BM14">
+        <v>10.35832894266328</v>
       </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:65">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2702,154 +3332,196 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029331908832533</v>
+        <v>1.038514266134752</v>
       </c>
       <c r="D15">
-        <v>0.9496520063224354</v>
+        <v>0.9940700140800836</v>
       </c>
       <c r="E15">
-        <v>0.9662080792612544</v>
+        <v>1.009697238597809</v>
       </c>
       <c r="F15">
-        <v>0.9334058833253016</v>
+        <v>0.9795067625544062</v>
       </c>
       <c r="G15">
-        <v>0.950330863927957</v>
+        <v>0.9954264418321598</v>
       </c>
       <c r="H15">
-        <v>0.9338263133031963</v>
+        <v>0.9657853157402483</v>
       </c>
       <c r="I15">
-        <v>0.9507415333352958</v>
+        <v>0.9819910975535673</v>
       </c>
       <c r="J15">
-        <v>0.9291155166706094</v>
+        <v>0.9705723772544061</v>
       </c>
       <c r="K15">
-        <v>0.9461407690468714</v>
+        <v>0.9866771456252031</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9474850833425748</v>
+        <v>0.9880790556110117</v>
       </c>
       <c r="N15">
-        <v>0.9474850833425748</v>
+        <v>0.9880790556110117</v>
       </c>
       <c r="O15">
-        <v>0.9812989168145215</v>
+        <v>1.0022717748191</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q15">
-        <v>0.9843805460003037</v>
+        <v>1.009375584795382</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S15">
-        <v>17.93557744481574</v>
+        <v>10.21827524074241</v>
       </c>
       <c r="T15">
-        <v>13.95644560579108</v>
+        <v>6.274382095164253</v>
       </c>
       <c r="U15">
-        <v>-0.1989523757346841</v>
+        <v>-2.49970136290558</v>
       </c>
       <c r="V15">
-        <v>3.756154497257838</v>
+        <v>1.115466585649171</v>
       </c>
       <c r="W15">
-        <v>-2.285614154502044</v>
+        <v>-3.345738634813554</v>
       </c>
       <c r="X15">
-        <v>1.805788278881997</v>
+        <v>0.3759260472848348</v>
       </c>
       <c r="Y15">
-        <v>-5.867056865329984</v>
+        <v>-6.930519014938129</v>
       </c>
       <c r="Z15">
-        <v>-1.779269083805159</v>
+        <v>-3.104182791172946</v>
       </c>
       <c r="AA15">
-        <v>-4.456865391148962</v>
+        <v>-5.987401743453848</v>
       </c>
       <c r="AB15">
-        <v>-0.3283031646648687</v>
+        <v>-2.198074906869729</v>
       </c>
       <c r="AC15">
         <v>0</v>
       </c>
       <c r="AD15">
-        <v>-0.3411436751518699</v>
+        <v>-2.21091541735673</v>
       </c>
       <c r="AE15">
-        <v>-0.3411436751518699</v>
+        <v>-2.21091541735673</v>
       </c>
       <c r="AF15">
-        <v>7.013826259459184</v>
+        <v>5.456423357126449</v>
       </c>
       <c r="AG15">
-        <v>11.4850214657924</v>
+        <v>9.435249807850591</v>
       </c>
       <c r="AH15">
-        <v>3.802574139102187</v>
+        <v>0.6854008553519982</v>
       </c>
       <c r="AI15">
-        <v>4.102136765803206</v>
+        <v>0.9775453858535756</v>
       </c>
       <c r="AJ15">
-        <v>67.25635855883816</v>
+        <v>34.66900153723071</v>
       </c>
       <c r="AK15">
-        <v>50.70663084710131</v>
+        <v>44.47122087021145</v>
       </c>
       <c r="AL15">
-        <v>1.953194845548048</v>
+        <v>2.03687736339322</v>
       </c>
       <c r="AM15">
-        <v>11.67199725767177</v>
+        <v>14.7807617975276</v>
       </c>
       <c r="AN15">
-        <v>12.82934026838577</v>
+        <v>8.489601878460238</v>
       </c>
       <c r="AO15">
-        <v>20.26418335977977</v>
+        <v>18.63508458316147</v>
       </c>
       <c r="AP15">
-        <v>47.45836116951018</v>
+        <v>45.16656494396371</v>
       </c>
       <c r="AQ15">
-        <v>8.037574106947977</v>
+        <v>3.550211418142469</v>
       </c>
       <c r="AR15">
-        <v>75.08618994091121</v>
+        <v>6.439382717664532</v>
       </c>
       <c r="AS15">
-        <v>68.15153140584503</v>
+        <v>31.08663497004329</v>
       </c>
       <c r="AT15">
-        <v>69.33772294528328</v>
+        <v>6.379561082326592</v>
       </c>
       <c r="AU15">
-        <v>69.30650551554301</v>
+        <v>3.478256136175617</v>
       </c>
       <c r="AV15">
-        <v>69.65790299727796</v>
+        <v>2.880092350034772</v>
       </c>
       <c r="AW15">
+        <v>0.0007634016828571103</v>
+      </c>
+      <c r="AX15">
+        <v>0.3488849807873677</v>
+      </c>
+      <c r="AY15">
+        <v>0.1393968768155389</v>
+      </c>
+      <c r="AZ15">
+        <v>0.5433858749461677</v>
+      </c>
+      <c r="BA15">
+        <v>2.113371657930458</v>
+      </c>
+      <c r="BB15">
+        <v>0.009749638656854742</v>
+      </c>
+      <c r="BC15">
+        <v>0.09862850979375537</v>
+      </c>
+      <c r="BD15">
+        <v>3.11104686545778</v>
+      </c>
+      <c r="BE15">
+        <v>0.05567031288467206</v>
+      </c>
+      <c r="BF15">
+        <v>72.77709457792615</v>
+      </c>
+      <c r="BG15">
+        <v>65.10631808303732</v>
+      </c>
+      <c r="BH15">
+        <v>66.07431516320177</v>
+      </c>
+      <c r="BI15">
+        <v>67.0130695494173</v>
+      </c>
+      <c r="BJ15">
+        <v>66.68254738156725</v>
+      </c>
+      <c r="BK15">
         <v>0</v>
       </c>
-      <c r="AX15">
-        <v>79.51476843466084</v>
-      </c>
-      <c r="AY15">
-        <v>16.4583109880924</v>
+      <c r="BL15">
+        <v>69.545603503819</v>
+      </c>
+      <c r="BM15">
+        <v>10.68381501000414</v>
       </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:65">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2857,154 +3529,196 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029572645142526</v>
+        <v>1.038786888456897</v>
       </c>
       <c r="D16">
-        <v>0.950596390895292</v>
+        <v>0.9947925983304036</v>
       </c>
       <c r="E16">
-        <v>0.967038131189199</v>
+        <v>1.010323971324465</v>
       </c>
       <c r="F16">
-        <v>0.9344644196838251</v>
+        <v>0.9803461427186665</v>
       </c>
       <c r="G16">
-        <v>0.9512665957069018</v>
+        <v>0.9961634107000719</v>
       </c>
       <c r="H16">
-        <v>0.9349468884670999</v>
+        <v>0.9668687112138794</v>
       </c>
       <c r="I16">
-        <v>0.9517380480808558</v>
+        <v>0.9829626995982275</v>
       </c>
       <c r="J16">
-        <v>0.9303014107798643</v>
+        <v>0.9716627528197518</v>
       </c>
       <c r="K16">
-        <v>0.947199265912559</v>
+        <v>0.9876571687691597</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9485450841625523</v>
+        <v>0.9890604712106852</v>
       </c>
       <c r="N16">
-        <v>0.9485450841625523</v>
+        <v>0.9890604712106852</v>
       </c>
       <c r="O16">
-        <v>0.9817337128637049</v>
+        <v>1.002596550885916</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>0.9849417821731539</v>
+        <v>1.009962787508896</v>
       </c>
       <c r="R16">
         <v>1</v>
       </c>
       <c r="S16">
-        <v>18.92763078963605</v>
+        <v>10.54539423104847</v>
       </c>
       <c r="T16">
-        <v>14.94943085573077</v>
+        <v>6.602537769702771</v>
       </c>
       <c r="U16">
-        <v>0.8886100702722561</v>
+        <v>-2.090754809590854</v>
       </c>
       <c r="V16">
-        <v>4.754979107991197</v>
+        <v>1.445112061162068</v>
       </c>
       <c r="W16">
-        <v>-1.093872775030321</v>
+        <v>-2.811244709244167</v>
       </c>
       <c r="X16">
-        <v>2.904662893917199</v>
+        <v>0.8278672321912738</v>
       </c>
       <c r="Y16">
-        <v>-5.01844583029423</v>
+        <v>-6.526788220902644</v>
       </c>
       <c r="Z16">
-        <v>-1.023959817079441</v>
+        <v>-2.787256314911911</v>
       </c>
       <c r="AA16">
-        <v>-3.398322935767389</v>
+        <v>-5.524195375798491</v>
       </c>
       <c r="AB16">
-        <v>0.6354104935141173</v>
+        <v>-1.820851235631259</v>
       </c>
       <c r="AC16">
         <v>0</v>
       </c>
       <c r="AD16">
-        <v>0.6225699830271104</v>
+        <v>-1.833691746118262</v>
       </c>
       <c r="AE16">
-        <v>0.6225699830271104</v>
+        <v>-1.833691746118262</v>
       </c>
       <c r="AF16">
-        <v>8.109887897141007</v>
+        <v>5.906667039823837</v>
       </c>
       <c r="AG16">
-        <v>12.57909884716988</v>
+        <v>9.884202534754595</v>
       </c>
       <c r="AH16">
-        <v>4.847963343993499</v>
+        <v>1.105310530939148</v>
       </c>
       <c r="AI16">
-        <v>5.208630528022066</v>
+        <v>1.457042365614748</v>
       </c>
       <c r="AJ16">
-        <v>67.17936261624094</v>
+        <v>34.629433692442</v>
       </c>
       <c r="AK16">
-        <v>51.10237545097229</v>
+        <v>43.86033880103005</v>
       </c>
       <c r="AL16">
-        <v>1.955379986163166</v>
+        <v>2.038900504363502</v>
       </c>
       <c r="AM16">
-        <v>12.40177942881719</v>
+        <v>15.15652317069587</v>
       </c>
       <c r="AN16">
-        <v>14.50767160463191</v>
+        <v>8.969303453466987</v>
       </c>
       <c r="AO16">
-        <v>18.4240318521157</v>
+        <v>16.93228404514701</v>
       </c>
       <c r="AP16">
-        <v>47.37489483046821</v>
+        <v>45.1666222224382</v>
       </c>
       <c r="AQ16">
-        <v>7.95403761141282</v>
+        <v>3.159300136070059</v>
       </c>
       <c r="AR16">
-        <v>75.01214182468688</v>
+        <v>7.176916171141512</v>
       </c>
       <c r="AS16">
-        <v>66.74399378378456</v>
+        <v>31.04974966038646</v>
       </c>
       <c r="AT16">
-        <v>67.8962176283506</v>
+        <v>6.331255839037407</v>
       </c>
       <c r="AU16">
-        <v>67.86118055200726</v>
+        <v>3.471659884601308</v>
       </c>
       <c r="AV16">
-        <v>68.20004664038566</v>
+        <v>2.801124292240956</v>
       </c>
       <c r="AW16">
+        <v>0.0007649189429044254</v>
+      </c>
+      <c r="AX16">
+        <v>0.3685720242418924</v>
+      </c>
+      <c r="AY16">
+        <v>0.1573034048072017</v>
+      </c>
+      <c r="AZ16">
+        <v>0.4433825714727746</v>
+      </c>
+      <c r="BA16">
+        <v>2.112737305166547</v>
+      </c>
+      <c r="BB16">
+        <v>0.006105008247888399</v>
+      </c>
+      <c r="BC16">
+        <v>0.1550137820322206</v>
+      </c>
+      <c r="BD16">
+        <v>3.105146998691197</v>
+      </c>
+      <c r="BE16">
+        <v>0.05321401080518129</v>
+      </c>
+      <c r="BF16">
+        <v>72.72522711207068</v>
+      </c>
+      <c r="BG16">
+        <v>63.77872102314412</v>
+      </c>
+      <c r="BH16">
+        <v>64.7185691258551</v>
+      </c>
+      <c r="BI16">
+        <v>65.62069789718166</v>
+      </c>
+      <c r="BJ16">
+        <v>65.29693499177802</v>
+      </c>
+      <c r="BK16">
         <v>0</v>
       </c>
-      <c r="AX16">
-        <v>79.3969254048566</v>
-      </c>
-      <c r="AY16">
-        <v>16.30269910654732</v>
+      <c r="BL16">
+        <v>69.54569169883841</v>
+      </c>
+      <c r="BM16">
+        <v>11.71828920077095</v>
       </c>
     </row>
-    <row r="17" spans="1:51">
+    <row r="17" spans="1:65">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3012,154 +3726,196 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029797763281392</v>
+        <v>1.039055983577075</v>
       </c>
       <c r="D17">
-        <v>0.9514859985240951</v>
+        <v>0.9955072824554294</v>
       </c>
       <c r="E17">
-        <v>0.9678143434595172</v>
+        <v>1.010942596507943</v>
       </c>
       <c r="F17">
-        <v>0.9354805212236145</v>
+        <v>0.9811802994687681</v>
       </c>
       <c r="G17">
-        <v>0.9521606892060731</v>
+        <v>0.9968949608208486</v>
       </c>
       <c r="H17">
-        <v>0.9359557048824463</v>
+        <v>0.9679427182142136</v>
       </c>
       <c r="I17">
-        <v>0.9526252020103757</v>
+        <v>0.9839249606548839</v>
       </c>
       <c r="J17">
-        <v>0.9314092775266741</v>
+        <v>0.972747689009467</v>
       </c>
       <c r="K17">
-        <v>0.9481814523010592</v>
+        <v>0.9886317211327632</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.949528666080393</v>
+        <v>0.9900364082569038</v>
       </c>
       <c r="N17">
-        <v>0.949528666080393</v>
+        <v>0.9900364082569038</v>
       </c>
       <c r="O17">
-        <v>0.9821491595275949</v>
+        <v>1.002918938279457</v>
       </c>
       <c r="P17">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q17">
-        <v>0.9854520224067826</v>
+        <v>1.010534172895711</v>
       </c>
       <c r="R17">
         <v>0.9999999999999999</v>
       </c>
       <c r="S17">
-        <v>19.92587012907741</v>
+        <v>10.87552842879383</v>
       </c>
       <c r="T17">
-        <v>15.94854124621348</v>
+        <v>6.933694704250351</v>
       </c>
       <c r="U17">
-        <v>1.983646771752801</v>
+        <v>-1.676816890089707</v>
       </c>
       <c r="V17">
-        <v>5.759539900159445</v>
+        <v>1.777736981176185</v>
       </c>
       <c r="W17">
-        <v>0.1107439114007634</v>
+        <v>-2.273246583069198</v>
       </c>
       <c r="X17">
-        <v>4.014573248717086</v>
+        <v>1.281266675591775</v>
       </c>
       <c r="Y17">
-        <v>-4.162066594223624</v>
+        <v>-6.117032975700011</v>
       </c>
       <c r="Z17">
-        <v>-0.2621278330128298</v>
+        <v>-2.466283624255657</v>
       </c>
       <c r="AA17">
-        <v>-2.330810585634337</v>
+        <v>-5.05486538717629</v>
       </c>
       <c r="AB17">
-        <v>1.606590081100388</v>
+        <v>-1.43949135756295</v>
       </c>
       <c r="AC17">
         <v>0</v>
       </c>
       <c r="AD17">
-        <v>1.593749570613384</v>
+        <v>-1.452331868049955</v>
       </c>
       <c r="AE17">
-        <v>1.593749570613384</v>
+        <v>-1.452331868049955</v>
       </c>
       <c r="AF17">
-        <v>9.217117632935668</v>
+        <v>6.358385011479438</v>
       </c>
       <c r="AG17">
-        <v>13.68443427678205</v>
+        <v>10.33463987427865</v>
       </c>
       <c r="AH17">
-        <v>5.886654811542262</v>
+        <v>1.522664206264683</v>
       </c>
       <c r="AI17">
-        <v>6.291323868745027</v>
+        <v>1.91728893938034</v>
       </c>
       <c r="AJ17">
-        <v>67.10788527634513</v>
+        <v>34.59078242750157</v>
       </c>
       <c r="AK17">
-        <v>51.48229160565869</v>
+        <v>43.23437124753486</v>
       </c>
       <c r="AL17">
-        <v>1.957407592893807</v>
+        <v>2.040912351559445</v>
       </c>
       <c r="AM17">
-        <v>13.15037023165843</v>
+        <v>15.5217546498616</v>
       </c>
       <c r="AN17">
-        <v>16.20735920827665</v>
+        <v>9.456654241051105</v>
       </c>
       <c r="AO17">
-        <v>17.41738116731044</v>
+        <v>15.22575026404297</v>
       </c>
       <c r="AP17">
-        <v>47.29629491428834</v>
+        <v>45.16765795683128</v>
       </c>
       <c r="AQ17">
-        <v>7.876274913284171</v>
+        <v>2.823569022882331</v>
       </c>
       <c r="AR17">
-        <v>74.94353464400567</v>
+        <v>8.015609247214023</v>
       </c>
       <c r="AS17">
-        <v>65.30321534234423</v>
+        <v>31.01369718213117</v>
       </c>
       <c r="AT17">
-        <v>66.42051186225811</v>
+        <v>6.28163556935515</v>
       </c>
       <c r="AU17">
-        <v>66.38679024307932</v>
+        <v>3.46524216747747</v>
       </c>
       <c r="AV17">
-        <v>66.71083975225376</v>
+        <v>2.721333730082051</v>
       </c>
       <c r="AW17">
+        <v>0.0007664292267405231</v>
+      </c>
+      <c r="AX17">
+        <v>0.3881702342986202</v>
+      </c>
+      <c r="AY17">
+        <v>0.1764620222614184</v>
+      </c>
+      <c r="AZ17">
+        <v>0.3527383763077978</v>
+      </c>
+      <c r="BA17">
+        <v>2.112199116602199</v>
+      </c>
+      <c r="BB17">
+        <v>0.003459899561588209</v>
+      </c>
+      <c r="BC17">
+        <v>0.2261063377283534</v>
+      </c>
+      <c r="BD17">
+        <v>3.099406817991252</v>
+      </c>
+      <c r="BE17">
+        <v>0.05070189659945079</v>
+      </c>
+      <c r="BF17">
+        <v>72.67500215577999</v>
+      </c>
+      <c r="BG17">
+        <v>62.41551031509043</v>
+      </c>
+      <c r="BH17">
+        <v>63.3268881269689</v>
+      </c>
+      <c r="BI17">
+        <v>64.19294642918474</v>
+      </c>
+      <c r="BJ17">
+        <v>63.8758598543839</v>
+      </c>
+      <c r="BK17">
         <v>0</v>
       </c>
-      <c r="AX17">
-        <v>79.28640451098084</v>
-      </c>
-      <c r="AY17">
-        <v>16.14933423097269</v>
+      <c r="BL17">
+        <v>69.54728647970182</v>
+      </c>
+      <c r="BM17">
+        <v>12.60579209656775</v>
       </c>
     </row>
-    <row r="18" spans="1:51">
+    <row r="18" spans="1:65">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3167,154 +3923,196 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029836960477456</v>
+        <v>1.039111436870105</v>
       </c>
       <c r="D18">
-        <v>0.9516436507046833</v>
+        <v>0.9956542903481265</v>
       </c>
       <c r="E18">
-        <v>0.9679494973687367</v>
+        <v>1.011070078722958</v>
       </c>
       <c r="F18">
-        <v>0.9356679089705631</v>
+        <v>0.981358065253497</v>
       </c>
       <c r="G18">
-        <v>0.9523237756908129</v>
+        <v>0.9970517514238993</v>
       </c>
       <c r="H18">
-        <v>0.9361251828730583</v>
+        <v>0.96816208629981</v>
       </c>
       <c r="I18">
-        <v>0.9527708150631994</v>
+        <v>0.9841216584149919</v>
       </c>
       <c r="J18">
-        <v>0.9316008767273727</v>
+        <v>0.9729694964599589</v>
       </c>
       <c r="K18">
-        <v>0.9483483456977211</v>
+        <v>0.9888311305595446</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.9496957966058057</v>
+        <v>0.9902361010125006</v>
       </c>
       <c r="N18">
-        <v>0.9496957966058057</v>
+        <v>0.9902361010125006</v>
       </c>
       <c r="O18">
-        <v>0.9822249385908211</v>
+        <v>1.002988034365169</v>
       </c>
       <c r="P18">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>0.9855741929363258</v>
+        <v>1.010671628797449</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S18">
-        <v>20.16519505728078</v>
+        <v>10.95391991519548</v>
       </c>
       <c r="T18">
-        <v>16.18801780135568</v>
+        <v>7.012296883316449</v>
       </c>
       <c r="U18">
-        <v>2.242483893564716</v>
+        <v>-1.581179503365249</v>
       </c>
       <c r="V18">
-        <v>5.999964472178758</v>
+        <v>1.856641359547784</v>
       </c>
       <c r="W18">
-        <v>0.386882116968623</v>
+        <v>-2.144366805899704</v>
       </c>
       <c r="X18">
-        <v>4.271415432143916</v>
+        <v>1.392699004226996</v>
       </c>
       <c r="Y18">
-        <v>-3.964926043215333</v>
+        <v>-6.024844508505875</v>
       </c>
       <c r="Z18">
-        <v>-0.0841176568092411</v>
+        <v>-2.392336609238304</v>
       </c>
       <c r="AA18">
-        <v>-2.082989919573384</v>
+        <v>-4.947887240035994</v>
       </c>
       <c r="AB18">
-        <v>1.83490852301158</v>
+        <v>-1.350588885917243</v>
       </c>
       <c r="AC18">
         <v>0</v>
       </c>
       <c r="AD18">
-        <v>1.822068012524576</v>
+        <v>-1.363429396404248</v>
       </c>
       <c r="AE18">
-        <v>1.822068012524576</v>
+        <v>-1.363429396404248</v>
       </c>
       <c r="AF18">
-        <v>9.473471615492814</v>
+        <v>6.469457415401889</v>
       </c>
       <c r="AG18">
-        <v>13.94044290396532</v>
+        <v>10.44543791249081</v>
       </c>
       <c r="AH18">
-        <v>6.155640405407927</v>
+        <v>1.631741547169869</v>
       </c>
       <c r="AI18">
-        <v>6.599791787169661</v>
+        <v>2.06486335657732</v>
       </c>
       <c r="AJ18">
-        <v>67.09549158774912</v>
+        <v>34.58286751977649</v>
       </c>
       <c r="AK18">
-        <v>51.62107332743804</v>
+        <v>43.10614611164853</v>
       </c>
       <c r="AL18">
-        <v>1.957752124418825</v>
+        <v>2.041324008553158</v>
       </c>
       <c r="AM18">
-        <v>13.30376455869424</v>
+        <v>15.63867358763435</v>
       </c>
       <c r="AN18">
-        <v>16.61721297811571</v>
+        <v>9.577780024549597</v>
       </c>
       <c r="AO18">
-        <v>17.33795350813939</v>
+        <v>14.83918192672635</v>
       </c>
       <c r="AP18">
-        <v>47.28207983906438</v>
+        <v>45.16800684832494</v>
       </c>
       <c r="AQ18">
-        <v>7.880708578925322</v>
+        <v>2.720803767460027</v>
       </c>
       <c r="AR18">
-        <v>74.93165192894938</v>
+        <v>8.222957675582583</v>
       </c>
       <c r="AS18">
-        <v>65.00848748678058</v>
+        <v>31.00631174934703</v>
       </c>
       <c r="AT18">
-        <v>66.11845267491799</v>
+        <v>6.276743058319802</v>
       </c>
       <c r="AU18">
-        <v>66.08615545288524</v>
+        <v>3.463931153439262</v>
       </c>
       <c r="AV18">
-        <v>66.40710190831427</v>
+        <v>2.705129405354967</v>
       </c>
       <c r="AW18">
+        <v>0.0007667384392759767</v>
+      </c>
+      <c r="AX18">
+        <v>0.3944502437329547</v>
+      </c>
+      <c r="AY18">
+        <v>0.1813784612819447</v>
+      </c>
+      <c r="AZ18">
+        <v>0.3334855274989152</v>
+      </c>
+      <c r="BA18">
+        <v>2.112095631478951</v>
+      </c>
+      <c r="BB18">
+        <v>0.002695389099889312</v>
+      </c>
+      <c r="BC18">
+        <v>0.2449819007407328</v>
+      </c>
+      <c r="BD18">
+        <v>3.098234211387904</v>
+      </c>
+      <c r="BE18">
+        <v>0.05048579542552467</v>
+      </c>
+      <c r="BF18">
+        <v>72.66477225775414</v>
+      </c>
+      <c r="BG18">
+        <v>62.1349347443466</v>
+      </c>
+      <c r="BH18">
+        <v>63.04010386130483</v>
+      </c>
+      <c r="BI18">
+        <v>63.89933590061272</v>
+      </c>
+      <c r="BJ18">
+        <v>63.58361139151663</v>
+      </c>
+      <c r="BK18">
         <v>0</v>
       </c>
-      <c r="AX18">
-        <v>79.26646473031897</v>
-      </c>
-      <c r="AY18">
-        <v>16.35019120662362</v>
+      <c r="BL18">
+        <v>69.54782368835424</v>
+      </c>
+      <c r="BM18">
+        <v>13.10105967928813</v>
       </c>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:65">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3322,154 +4120,196 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029853354411816</v>
+        <v>1.039138383196405</v>
       </c>
       <c r="D19">
-        <v>0.9517107460547576</v>
+        <v>0.9957255829732918</v>
       </c>
       <c r="E19">
-        <v>0.9680060245797079</v>
+        <v>1.011132025960906</v>
       </c>
       <c r="F19">
-        <v>0.935750699629783</v>
+        <v>0.9814467245962232</v>
       </c>
       <c r="G19">
-        <v>0.9523951133230275</v>
+        <v>0.9971303208287067</v>
       </c>
       <c r="H19">
-        <v>0.9361945026362334</v>
+        <v>0.9682677862182865</v>
       </c>
       <c r="I19">
-        <v>0.9528289988638818</v>
+        <v>0.9842165162042029</v>
       </c>
       <c r="J19">
-        <v>0.9316805309178684</v>
+        <v>0.9730763110616456</v>
       </c>
       <c r="K19">
-        <v>0.9484164720853991</v>
+        <v>0.9889272343516852</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.9497640197901546</v>
+        <v>0.990332341352717</v>
       </c>
       <c r="N19">
-        <v>0.9497640197901546</v>
+        <v>0.990332341352717</v>
       </c>
       <c r="O19">
-        <v>0.9822580860093785</v>
+        <v>1.00302265912204</v>
       </c>
       <c r="P19">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>0.985641843058668</v>
+        <v>1.010746874116315</v>
       </c>
       <c r="R19">
         <v>1</v>
       </c>
       <c r="S19">
-        <v>20.29505808115462</v>
+        <v>10.99614965463628</v>
       </c>
       <c r="T19">
-        <v>16.3179442386322</v>
+        <v>7.054628996154954</v>
       </c>
       <c r="U19">
-        <v>2.381565999940511</v>
+        <v>-1.530674740750983</v>
       </c>
       <c r="V19">
-        <v>6.130287322730455</v>
+        <v>1.899120280990695</v>
       </c>
       <c r="W19">
-        <v>0.5319359635063666</v>
+        <v>-2.074477153280641</v>
       </c>
       <c r="X19">
-        <v>4.407279101342477</v>
+        <v>1.4542023931476</v>
       </c>
       <c r="Y19">
-        <v>-3.861012180845016</v>
+        <v>-5.97713482832738</v>
       </c>
       <c r="Z19">
-        <v>0.01072449554647785</v>
+        <v>-2.353372219731956</v>
       </c>
       <c r="AA19">
-        <v>-1.951547886010065</v>
+        <v>-4.891959048514958</v>
       </c>
       <c r="AB19">
-        <v>1.957104890361839</v>
+        <v>-1.303326050486321</v>
       </c>
       <c r="AC19">
         <v>0</v>
       </c>
       <c r="AD19">
-        <v>1.944264379874839</v>
+        <v>-1.316166560973324</v>
       </c>
       <c r="AE19">
-        <v>1.944264379874839</v>
+        <v>-1.316166560973324</v>
       </c>
       <c r="AF19">
-        <v>9.609121808027449</v>
+        <v>6.530780503211301</v>
       </c>
       <c r="AG19">
-        <v>14.07594204731441</v>
+        <v>10.50662352708188</v>
       </c>
       <c r="AH19">
-        <v>6.309289219798224</v>
+        <v>1.69437873461487</v>
       </c>
       <c r="AI19">
-        <v>6.78596420592802</v>
+        <v>2.159213757109884</v>
       </c>
       <c r="AJ19">
-        <v>67.09031258511332</v>
+        <v>34.5790276295858</v>
       </c>
       <c r="AK19">
-        <v>51.71434972077014</v>
+        <v>43.04488155351404</v>
       </c>
       <c r="AL19">
-        <v>1.957892763225952</v>
+        <v>2.041522403377294</v>
       </c>
       <c r="AM19">
-        <v>13.37704492280302</v>
+        <v>15.71324466570011</v>
       </c>
       <c r="AN19">
-        <v>16.84017963374891</v>
+        <v>9.644946706808994</v>
       </c>
       <c r="AO19">
-        <v>17.32393715595311</v>
+        <v>14.63739245070538</v>
       </c>
       <c r="AP19">
-        <v>47.27587369808945</v>
+        <v>45.16819852951738</v>
       </c>
       <c r="AQ19">
-        <v>7.893447435224936</v>
+        <v>2.657680551892538</v>
       </c>
       <c r="AR19">
-        <v>74.92668762496361</v>
+        <v>8.335209647247199</v>
       </c>
       <c r="AS19">
-        <v>64.86779926876862</v>
+        <v>31.00272839696905</v>
       </c>
       <c r="AT19">
-        <v>65.97417630725234</v>
+        <v>6.276578745084514</v>
       </c>
       <c r="AU19">
-        <v>65.94290124879947</v>
+        <v>3.463295514027692</v>
       </c>
       <c r="AV19">
-        <v>66.26239315765227</v>
+        <v>2.697403754507434</v>
       </c>
       <c r="AW19">
+        <v>0.0007668874840449084</v>
+      </c>
+      <c r="AX19">
+        <v>0.3984554037802539</v>
+      </c>
+      <c r="AY19">
+        <v>0.1841320175226073</v>
+      </c>
+      <c r="AZ19">
+        <v>0.3236109483547693</v>
+      </c>
+      <c r="BA19">
+        <v>2.112045348995451</v>
+      </c>
+      <c r="BB19">
+        <v>0.00223699838618252</v>
+      </c>
+      <c r="BC19">
+        <v>0.25544451894811</v>
+      </c>
+      <c r="BD19">
+        <v>3.097665678214327</v>
+      </c>
+      <c r="BE19">
+        <v>0.05050542873090791</v>
+      </c>
+      <c r="BF19">
+        <v>72.65981609313931</v>
+      </c>
+      <c r="BG19">
+        <v>62.00039719042351</v>
+      </c>
+      <c r="BH19">
+        <v>62.90242770172632</v>
+      </c>
+      <c r="BI19">
+        <v>63.75858261083612</v>
+      </c>
+      <c r="BJ19">
+        <v>63.44351510279347</v>
+      </c>
+      <c r="BK19">
         <v>0</v>
       </c>
-      <c r="AX19">
-        <v>79.25776397710197</v>
-      </c>
-      <c r="AY19">
-        <v>16.56433993842809</v>
+      <c r="BL19">
+        <v>69.54811883110466</v>
+      </c>
+      <c r="BM19">
+        <v>13.49153295429797</v>
       </c>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:65">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3477,154 +4317,196 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030023465154881</v>
+        <v>1.039358784045676</v>
       </c>
       <c r="D20">
-        <v>0.9523907610441941</v>
+        <v>0.9963124878952245</v>
       </c>
       <c r="E20">
-        <v>0.9685925794439195</v>
+        <v>1.0116387085908</v>
       </c>
       <c r="F20">
-        <v>0.9365497102417377</v>
+        <v>0.9821368197092865</v>
       </c>
       <c r="G20">
-        <v>0.9530933379717119</v>
+        <v>0.9977347388531104</v>
       </c>
       <c r="H20">
-        <v>0.9369109362785277</v>
+        <v>0.9691522743043219</v>
       </c>
       <c r="I20">
-        <v>0.9534466034489523</v>
+        <v>0.985007975732588</v>
       </c>
       <c r="J20">
-        <v>0.9325162369564602</v>
+        <v>0.973974241660657</v>
       </c>
       <c r="K20">
-        <v>0.9491492942673005</v>
+        <v>0.9897331884998782</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.9504978831948511</v>
+        <v>0.9911394406324997</v>
       </c>
       <c r="N20">
-        <v>0.9504978831948511</v>
+        <v>0.9911394406324997</v>
       </c>
       <c r="O20">
-        <v>0.9825825193029107</v>
+        <v>1.003289019887714</v>
       </c>
       <c r="P20">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q20">
-        <v>0.9860144694505247</v>
+        <v>1.01120818033252</v>
       </c>
       <c r="R20">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S20">
-        <v>21.13796136068398</v>
+        <v>11.27565830531335</v>
       </c>
       <c r="T20">
-        <v>17.16150540435614</v>
+        <v>7.334974785119625</v>
       </c>
       <c r="U20">
-        <v>3.306538506525609</v>
+        <v>-1.179193374381671</v>
       </c>
       <c r="V20">
-        <v>6.977958798110914</v>
+        <v>2.180665907820122</v>
       </c>
       <c r="W20">
-        <v>1.553538894437419</v>
+        <v>-1.620374765002362</v>
       </c>
       <c r="X20">
-        <v>5.347950143501346</v>
+        <v>1.835591233873277</v>
       </c>
       <c r="Y20">
-        <v>-3.136118865629475</v>
+        <v>-5.628299039067869</v>
       </c>
       <c r="Z20">
-        <v>0.6554199112044995</v>
+        <v>-2.08066396104214</v>
       </c>
       <c r="AA20">
-        <v>-1.048467217021613</v>
+        <v>-4.493093821679201</v>
       </c>
       <c r="AB20">
-        <v>2.778239367731882</v>
+        <v>-0.9799192114459249</v>
       </c>
       <c r="AC20">
         <v>0</v>
       </c>
       <c r="AD20">
-        <v>2.765398857244873</v>
+        <v>-0.9927597219329283</v>
       </c>
       <c r="AE20">
-        <v>2.765398857244873</v>
+        <v>-0.9927597219329283</v>
       </c>
       <c r="AF20">
-        <v>10.54770577352962</v>
+        <v>6.910783683625452</v>
       </c>
       <c r="AG20">
-        <v>15.01304814520321</v>
+        <v>10.88556947379156</v>
       </c>
       <c r="AH20">
-        <v>7.17434185679272</v>
+        <v>2.041944932052286</v>
       </c>
       <c r="AI20">
-        <v>7.672531306608682</v>
+        <v>2.5277219570081</v>
       </c>
       <c r="AJ20">
-        <v>67.03673204108239</v>
+        <v>34.54777230554637</v>
       </c>
       <c r="AK20">
-        <v>52.02007980936922</v>
+        <v>42.50703038089591</v>
       </c>
       <c r="AL20">
-        <v>1.959405587274475</v>
+        <v>2.043186199653074</v>
       </c>
       <c r="AM20">
-        <v>14.02136063542176</v>
+        <v>16.01035524396218</v>
       </c>
       <c r="AN20">
-        <v>18.28292331956337</v>
+        <v>10.06055646385843</v>
       </c>
       <c r="AO20">
-        <v>17.56657568241589</v>
+        <v>13.21719603524234</v>
       </c>
       <c r="AP20">
-        <v>47.21551173585763</v>
+        <v>45.17004918131506</v>
       </c>
       <c r="AQ20">
-        <v>7.834461601459449</v>
+        <v>2.477500221884993</v>
       </c>
       <c r="AR20">
-        <v>74.875369283876</v>
+        <v>9.116696193946336</v>
       </c>
       <c r="AS20">
-        <v>63.63124348110713</v>
+        <v>30.97355295343086</v>
       </c>
       <c r="AT20">
-        <v>64.70751925118614</v>
+        <v>6.234602610247107</v>
       </c>
       <c r="AU20">
-        <v>64.68257126539092</v>
+        <v>3.45813130889934</v>
       </c>
       <c r="AV20">
-        <v>64.98740290351593</v>
+        <v>2.630053525823996</v>
       </c>
       <c r="AW20">
+        <v>0.0007681379864865652</v>
+      </c>
+      <c r="AX20">
+        <v>0.4149201845919563</v>
+      </c>
+      <c r="AY20">
+        <v>0.2015628474320579</v>
+      </c>
+      <c r="AZ20">
+        <v>0.2582303524817675</v>
+      </c>
+      <c r="BA20">
+        <v>2.111693695626485</v>
+      </c>
+      <c r="BB20">
+        <v>0.001047769888209427</v>
+      </c>
+      <c r="BC20">
+        <v>0.3311631311436614</v>
+      </c>
+      <c r="BD20">
+        <v>3.09304667272761</v>
+      </c>
+      <c r="BE20">
+        <v>0.04839200122937548</v>
+      </c>
+      <c r="BF20">
+        <v>72.61964282084135</v>
+      </c>
+      <c r="BG20">
+        <v>60.82610540512782</v>
+      </c>
+      <c r="BH20">
+        <v>61.70403877445326</v>
+      </c>
+      <c r="BI20">
+        <v>62.53073950495688</v>
+      </c>
+      <c r="BJ20">
+        <v>62.22116131308777</v>
+      </c>
+      <c r="BK20">
         <v>0</v>
       </c>
-      <c r="AX20">
-        <v>79.17329131395064</v>
-      </c>
-      <c r="AY20">
-        <v>16.43596859995022</v>
+      <c r="BL20">
+        <v>69.55096838799044</v>
+      </c>
+      <c r="BM20">
+        <v>14.08232807942488</v>
       </c>
     </row>
-    <row r="21" spans="1:51">
+    <row r="21" spans="1:65">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3632,154 +4514,196 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030159975622439</v>
+        <v>1.039541695176418</v>
       </c>
       <c r="D21">
-        <v>0.9529396492880047</v>
+        <v>0.9968004487279845</v>
       </c>
       <c r="E21">
-        <v>0.9690632824937309</v>
+        <v>1.01205920615934</v>
       </c>
       <c r="F21">
-        <v>0.9372037166287648</v>
+        <v>0.9827105734282243</v>
       </c>
       <c r="G21">
-        <v>0.9536629670263316</v>
+        <v>0.998236503086789</v>
       </c>
       <c r="H21">
-        <v>0.9374610356506007</v>
+        <v>0.969889588651956</v>
       </c>
       <c r="I21">
-        <v>0.9539146816060787</v>
+        <v>0.9856672032568263</v>
       </c>
       <c r="J21">
-        <v>0.9331862146163693</v>
+        <v>0.974725274736307</v>
       </c>
       <c r="K21">
-        <v>0.949733481970597</v>
+        <v>0.9904069741929038</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.9510829009351851</v>
+        <v>0.9918141836669373</v>
       </c>
       <c r="N21">
-        <v>0.9510829009351851</v>
+        <v>0.9918141836669373</v>
       </c>
       <c r="O21">
-        <v>0.9828471992780867</v>
+        <v>1.003510141843464</v>
       </c>
       <c r="P21">
         <v>0.9999999999999999</v>
       </c>
       <c r="Q21">
-        <v>0.9862906585598216</v>
+        <v>1.011578233837784</v>
       </c>
       <c r="R21">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="S21">
-        <v>21.83664800100922</v>
+        <v>11.50805811442932</v>
       </c>
       <c r="T21">
-        <v>17.86071982767077</v>
+        <v>7.568069066890736</v>
       </c>
       <c r="U21">
-        <v>4.075165041729063</v>
+        <v>-0.8851287922668255</v>
       </c>
       <c r="V21">
-        <v>7.680467642827458</v>
+        <v>2.414754657482624</v>
       </c>
       <c r="W21">
-        <v>2.40879271614948</v>
+        <v>-1.244141848588498</v>
       </c>
       <c r="X21">
-        <v>6.133993808596067</v>
+        <v>2.149511764037539</v>
       </c>
       <c r="Y21">
-        <v>-2.530390713605686</v>
+        <v>-5.334781048971354</v>
       </c>
       <c r="Z21">
-        <v>1.192802319931218</v>
+        <v>-1.852310492918601</v>
       </c>
       <c r="AA21">
-        <v>-0.2951377110745893</v>
+        <v>-4.158515655104396</v>
       </c>
       <c r="AB21">
-        <v>3.461625192742066</v>
+        <v>-0.709946358171239</v>
       </c>
       <c r="AC21">
         <v>0</v>
       </c>
       <c r="AD21">
-        <v>3.448784682255053</v>
+        <v>-0.7227868686582448</v>
       </c>
       <c r="AE21">
-        <v>3.448784682255053</v>
+        <v>-0.7227868686582448</v>
       </c>
       <c r="AF21">
-        <v>11.33204990153602</v>
+        <v>7.223555716818108</v>
       </c>
       <c r="AG21">
-        <v>15.79618732046307</v>
+        <v>11.1974642616218</v>
       </c>
       <c r="AH21">
-        <v>7.875122478629716</v>
+        <v>2.322941496774237</v>
       </c>
       <c r="AI21">
-        <v>8.368524869118625</v>
+        <v>2.804009451195299</v>
       </c>
       <c r="AJ21">
-        <v>66.99394492988564</v>
+        <v>34.52203964832841</v>
       </c>
       <c r="AK21">
-        <v>52.24212745679701</v>
+        <v>42.04581714744046</v>
       </c>
       <c r="AL21">
-        <v>1.96061157315784</v>
+        <v>2.044577149906837</v>
       </c>
       <c r="AM21">
-        <v>14.57461225661363</v>
+        <v>16.23795106799892</v>
       </c>
       <c r="AN21">
-        <v>19.4807323228307</v>
+        <v>10.40475090006825</v>
       </c>
       <c r="AO21">
-        <v>18.30626719816752</v>
+        <v>12.04796303994806</v>
       </c>
       <c r="AP21">
-        <v>47.16678068960664</v>
+        <v>45.17209114289023</v>
       </c>
       <c r="AQ21">
-        <v>7.772486654140592</v>
+        <v>2.46369212632056</v>
       </c>
       <c r="AR21">
-        <v>74.8344429356321</v>
+        <v>9.792932062194334</v>
       </c>
       <c r="AS21">
-        <v>62.57141685981681</v>
+        <v>30.94952145381163</v>
       </c>
       <c r="AT21">
-        <v>63.62200979348663</v>
+        <v>6.198185808764213</v>
       </c>
       <c r="AU21">
-        <v>63.60454650412883</v>
+        <v>3.45389268448514</v>
       </c>
       <c r="AV21">
-        <v>63.89591177400732</v>
+        <v>2.572971597199626</v>
       </c>
       <c r="AW21">
+        <v>0.0007691842009185636</v>
+      </c>
+      <c r="AX21">
+        <v>0.4276622288680159</v>
+      </c>
+      <c r="AY21">
+        <v>0.2165341004151315</v>
+      </c>
+      <c r="AZ21">
+        <v>0.2094061834984373</v>
+      </c>
+      <c r="BA21">
+        <v>2.11144903978871</v>
+      </c>
+      <c r="BB21">
+        <v>0.0004847727234267296</v>
+      </c>
+      <c r="BC21">
+        <v>0.4019444825554856</v>
+      </c>
+      <c r="BD21">
+        <v>3.089255531799296</v>
+      </c>
+      <c r="BE21">
+        <v>0.04656028527891287</v>
+      </c>
+      <c r="BF21">
+        <v>72.58679665013051</v>
+      </c>
+      <c r="BG21">
+        <v>59.81817535690023</v>
+      </c>
+      <c r="BH21">
+        <v>60.67583442176373</v>
+      </c>
+      <c r="BI21">
+        <v>61.47790917182886</v>
+      </c>
+      <c r="BJ21">
+        <v>61.17291259732474</v>
+      </c>
+      <c r="BK21">
         <v>0</v>
       </c>
-      <c r="AX21">
-        <v>79.10530150662247</v>
-      </c>
-      <c r="AY21">
-        <v>16.15818067981033</v>
+      <c r="BL21">
+        <v>69.55411251573756</v>
+      </c>
+      <c r="BM21">
+        <v>14.33065981219457</v>
       </c>
     </row>
-    <row r="22" spans="1:51">
+    <row r="22" spans="1:65">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3787,154 +4711,196 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.030345190847851</v>
+        <v>1.039797609815777</v>
       </c>
       <c r="D22">
-        <v>0.9536887024041907</v>
+        <v>0.9974844716022532</v>
       </c>
       <c r="E22">
-        <v>0.9697019312906604</v>
+        <v>1.01264753364453</v>
       </c>
       <c r="F22">
-        <v>0.938108504025029</v>
+        <v>0.9835133633820324</v>
       </c>
       <c r="G22">
-        <v>0.9544485447039235</v>
+        <v>0.9989372979147002</v>
       </c>
       <c r="H22">
-        <v>0.9381691876994351</v>
+        <v>0.9709263773054549</v>
       </c>
       <c r="I22">
-        <v>0.9545079286585815</v>
+        <v>0.9865934448001727</v>
       </c>
       <c r="J22">
-        <v>0.9340943140175912</v>
+        <v>0.975785304841451</v>
       </c>
       <c r="K22">
-        <v>0.9505208086008206</v>
+        <v>0.9913575801348297</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9518713462302826</v>
+        <v>0.9927661402674535</v>
       </c>
       <c r="N22">
-        <v>0.9518713462302826</v>
+        <v>0.9927661402674535</v>
       </c>
       <c r="O22">
-        <v>0.9832122193237904</v>
+        <v>1.003818973858045</v>
       </c>
       <c r="P22">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>0.9866212339108918</v>
+        <v>1.012071563210491</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="S22">
-        <v>22.80657498517387</v>
+        <v>11.83189824823009</v>
       </c>
       <c r="T22">
-        <v>18.83136267524013</v>
+        <v>7.8928804403035</v>
       </c>
       <c r="U22">
-        <v>5.145982536669793</v>
+        <v>-0.4719140896503588</v>
       </c>
       <c r="V22">
-        <v>8.65557459630725</v>
+        <v>2.740955465474207</v>
       </c>
       <c r="W22">
-        <v>3.612137630588902</v>
+        <v>-0.7222514329059115</v>
       </c>
       <c r="X22">
-        <v>7.237188555961575</v>
+        <v>2.581079253028715</v>
       </c>
       <c r="Y22">
-        <v>-1.680035877710099</v>
+        <v>-4.91919809473019</v>
       </c>
       <c r="Z22">
-        <v>1.944554438463497</v>
+        <v>-1.531080051942643</v>
       </c>
       <c r="AA22">
-        <v>0.7599201310058944</v>
+        <v>-3.68670937613009</v>
       </c>
       <c r="AB22">
-        <v>4.415634633139841</v>
+        <v>-0.3317016147832714</v>
       </c>
       <c r="AC22">
         <v>0</v>
       </c>
       <c r="AD22">
-        <v>4.402794122652831</v>
+        <v>-0.3445421252702767</v>
       </c>
       <c r="AE22">
-        <v>4.402794122652832</v>
+        <v>-0.3445421252702767</v>
       </c>
       <c r="AF22">
-        <v>12.43290544575398</v>
+        <v>7.653521908133317</v>
       </c>
       <c r="AG22">
-        <v>16.89538218235302</v>
+        <v>11.62620588852434</v>
       </c>
       <c r="AH22">
-        <v>8.817758258430194</v>
+        <v>2.699682433342983</v>
       </c>
       <c r="AI22">
-        <v>9.262212606179011</v>
+        <v>3.132959974702909</v>
       </c>
       <c r="AJ22">
-        <v>66.93619199779739</v>
+        <v>34.48635131910271</v>
       </c>
       <c r="AK22">
-        <v>52.48986662328065</v>
+        <v>41.37665529738368</v>
       </c>
       <c r="AL22">
-        <v>1.962236915143026</v>
+        <v>2.046539562569626</v>
       </c>
       <c r="AM22">
-        <v>15.3786553721378</v>
+        <v>16.54668623826256</v>
       </c>
       <c r="AN22">
-        <v>21.14499849662768</v>
+        <v>10.8804985002031</v>
       </c>
       <c r="AO22">
-        <v>20.04655999805927</v>
+        <v>10.44613371720205</v>
       </c>
       <c r="AP22">
-        <v>47.10033564474517</v>
+        <v>45.17571064956061</v>
       </c>
       <c r="AQ22">
-        <v>7.661065498928286</v>
+        <v>2.493989444204031</v>
       </c>
       <c r="AR22">
-        <v>74.77927930383963</v>
+        <v>10.76681809676725</v>
       </c>
       <c r="AS22">
-        <v>61.03446871165441</v>
+        <v>30.91617521130888</v>
       </c>
       <c r="AT22">
-        <v>62.04813517604985</v>
+        <v>6.146483599927512</v>
       </c>
       <c r="AU22">
-        <v>62.04412171144038</v>
+        <v>3.448034132789729</v>
       </c>
       <c r="AV22">
-        <v>62.3147817024938</v>
+        <v>2.491256004745765</v>
       </c>
       <c r="AW22">
-        <v>1.4210854715202E-14</v>
+        <v>0.0007706614562307032</v>
       </c>
       <c r="AX22">
-        <v>79.01290440176695</v>
+        <v>0.4434338149548722</v>
       </c>
       <c r="AY22">
-        <v>15.43891362472159</v>
+        <v>0.2380253165630677</v>
+      </c>
+      <c r="AZ22">
+        <v>0.1498628603563112</v>
+      </c>
+      <c r="BA22">
+        <v>2.111179114612497</v>
+      </c>
+      <c r="BB22">
+        <v>0.0001463622718200774</v>
+      </c>
+      <c r="BC22">
+        <v>0.5124615746104553</v>
+      </c>
+      <c r="BD22">
+        <v>3.084015483862828</v>
+      </c>
+      <c r="BE22">
+        <v>0.04397117580805254</v>
+      </c>
+      <c r="BF22">
+        <v>72.54159372493812</v>
+      </c>
+      <c r="BG22">
+        <v>58.35467611244903</v>
+      </c>
+      <c r="BH22">
+        <v>59.1836221394959</v>
+      </c>
+      <c r="BI22">
+        <v>59.95087230927565</v>
+      </c>
+      <c r="BJ22">
+        <v>59.65234665734656</v>
+      </c>
+      <c r="BK22">
+        <v>0</v>
+      </c>
+      <c r="BL22">
+        <v>69.55968568199641</v>
+      </c>
+      <c r="BM22">
+        <v>14.26878890109511</v>
       </c>
     </row>
-    <row r="23" spans="1:51">
+    <row r="23" spans="1:65">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3942,154 +4908,196 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.030515369755187</v>
+        <v>1.040054056745505</v>
       </c>
       <c r="D23">
-        <v>0.9543863271687412</v>
+        <v>0.998171089709552</v>
       </c>
       <c r="E23">
-        <v>0.9702887391845699</v>
+        <v>1.013237085856827</v>
       </c>
       <c r="F23">
-        <v>0.938976931476602</v>
+        <v>0.9843249574887656</v>
       </c>
       <c r="G23">
-        <v>0.9551971248133295</v>
+        <v>0.9996454279983821</v>
       </c>
       <c r="H23">
-        <v>0.9387620415743249</v>
+        <v>0.9719690178962206</v>
       </c>
       <c r="I23">
-        <v>0.9549867596159403</v>
+        <v>0.9875242274879289</v>
       </c>
       <c r="J23">
-        <v>0.9349262945710354</v>
+        <v>0.976856038563202</v>
       </c>
       <c r="K23">
-        <v>0.951232220131211</v>
+        <v>0.9923175177001268</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.9525837685623648</v>
+        <v>0.9937274417500809</v>
       </c>
       <c r="N23">
-        <v>0.9525837685623648</v>
+        <v>0.9937274417500809</v>
       </c>
       <c r="O23">
-        <v>0.9835600471447032</v>
+        <v>1.004131037812615</v>
       </c>
       <c r="P23">
         <v>0.9999999999999999</v>
       </c>
       <c r="Q23">
-        <v>0.9869089712404967</v>
+        <v>1.012561962896074</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S23">
-        <v>23.81224187826199</v>
+        <v>12.16779025371515</v>
       </c>
       <c r="T23">
-        <v>19.83768708844596</v>
+        <v>8.229745224940036</v>
       </c>
       <c r="U23">
-        <v>6.255757209161709</v>
+        <v>-0.04292905274771365</v>
       </c>
       <c r="V23">
-        <v>9.665994918479489</v>
+        <v>3.079210302508734</v>
       </c>
       <c r="W23">
-        <v>4.861223688663273</v>
+        <v>-0.182027171576111</v>
       </c>
       <c r="X23">
-        <v>8.382327835707548</v>
+        <v>3.027167204881842</v>
       </c>
       <c r="Y23">
-        <v>-0.7983246007909771</v>
+        <v>-4.487448531967769</v>
       </c>
       <c r="Z23">
-        <v>2.724363358975953</v>
+        <v>-1.197478819175491</v>
       </c>
       <c r="AA23">
-        <v>1.853758138660827</v>
+        <v>-3.196898586383537</v>
       </c>
       <c r="AB23">
-        <v>5.404896206913557</v>
+        <v>0.06076469056038838</v>
       </c>
       <c r="AC23">
         <v>0</v>
       </c>
       <c r="AD23">
-        <v>5.392055696426554</v>
+        <v>0.0479241800733835</v>
       </c>
       <c r="AE23">
-        <v>5.392055696426554</v>
+        <v>0.0479241800733835</v>
       </c>
       <c r="AF23">
-        <v>13.57582067711562</v>
+        <v>8.097995066468764</v>
       </c>
       <c r="AG23">
-        <v>18.03671609892995</v>
+        <v>12.06944243429689</v>
       </c>
       <c r="AH23">
-        <v>9.787913606133866</v>
+        <v>3.087079643982532</v>
       </c>
       <c r="AI23">
-        <v>10.17263286228357</v>
+        <v>3.462051997755771</v>
       </c>
       <c r="AJ23">
-        <v>66.8834327445021</v>
+        <v>34.45095805093444</v>
       </c>
       <c r="AK23">
-        <v>52.74074877768451</v>
+        <v>40.67965052373078</v>
       </c>
       <c r="AL23">
-        <v>1.96370553945274</v>
+        <v>2.048521239256432</v>
       </c>
       <c r="AM23">
-        <v>16.21801310496162</v>
+        <v>16.85814422541607</v>
       </c>
       <c r="AN23">
-        <v>22.87258992804723</v>
+        <v>11.37562906879546</v>
       </c>
       <c r="AO23">
-        <v>22.54429778799908</v>
+        <v>8.869784548403267</v>
       </c>
       <c r="AP23">
-        <v>47.03784296053299</v>
+        <v>45.18027654208952</v>
       </c>
       <c r="AQ23">
-        <v>7.554282608905314</v>
+        <v>2.556524667901641</v>
       </c>
       <c r="AR23">
-        <v>74.72896478555415</v>
+        <v>11.80428218523089</v>
       </c>
       <c r="AS23">
-        <v>59.43473577975297</v>
+        <v>30.88308431139411</v>
       </c>
       <c r="AT23">
-        <v>60.41010943461765</v>
+        <v>6.101329681149437</v>
       </c>
       <c r="AU23">
-        <v>60.42393777655949</v>
+        <v>3.442247393203445</v>
       </c>
       <c r="AV23">
-        <v>60.67184067500104</v>
+        <v>2.407527822134682</v>
       </c>
       <c r="AW23">
+        <v>0.0007721546511122442</v>
+      </c>
+      <c r="AX23">
+        <v>0.459663589142643</v>
+      </c>
+      <c r="AY23">
+        <v>0.2613809939247318</v>
+      </c>
+      <c r="AZ23">
+        <v>0.09948766391407204</v>
+      </c>
+      <c r="BA23">
+        <v>2.110991336956715</v>
+      </c>
+      <c r="BB23">
+        <v>8.05315907879689E-05</v>
+      </c>
+      <c r="BC23">
+        <v>0.6415565119195037</v>
+      </c>
+      <c r="BD23">
+        <v>3.078839666629705</v>
+      </c>
+      <c r="BE23">
+        <v>0.04175886284203312</v>
+      </c>
+      <c r="BF23">
+        <v>72.49717905926055</v>
+      </c>
+      <c r="BG23">
+        <v>56.82763182771448</v>
+      </c>
+      <c r="BH23">
+        <v>57.62700493930168</v>
+      </c>
+      <c r="BI23">
+        <v>58.35957540072494</v>
+      </c>
+      <c r="BJ23">
+        <v>58.06761380163491</v>
+      </c>
+      <c r="BK23">
         <v>0</v>
       </c>
-      <c r="AX23">
-        <v>78.92633903167949</v>
-      </c>
-      <c r="AY23">
-        <v>14.69254009883881</v>
+      <c r="BL23">
+        <v>69.56671605395078</v>
+      </c>
+      <c r="BM23">
+        <v>14.18348691336245</v>
       </c>
     </row>
-    <row r="24" spans="1:51">
+    <row r="24" spans="1:65">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4097,154 +5105,196 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030660893302521</v>
+        <v>1.040305186656255</v>
       </c>
       <c r="D24">
-        <v>0.9549964884699862</v>
+        <v>0.9988446492075352</v>
       </c>
       <c r="E24">
-        <v>0.9707905358229397</v>
+        <v>1.01381441564264</v>
       </c>
       <c r="F24">
-        <v>0.9397729872775563</v>
+        <v>0.9851314075749784</v>
       </c>
       <c r="G24">
-        <v>0.9558757106107667</v>
+        <v>1.000349218086675</v>
       </c>
       <c r="H24">
-        <v>0.9391924097513763</v>
+        <v>0.9729930417054378</v>
       </c>
       <c r="I24">
-        <v>0.9553071529552438</v>
+        <v>0.9884376384666702</v>
       </c>
       <c r="J24">
-        <v>0.935634120956141</v>
+        <v>0.9779128574708768</v>
       </c>
       <c r="K24">
-        <v>0.9518229407904473</v>
+        <v>0.9932646952721811</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.9531753285409215</v>
+        <v>0.9946759651095622</v>
       </c>
       <c r="N24">
-        <v>0.9531753285409215</v>
+        <v>0.9946759651095622</v>
       </c>
       <c r="O24">
-        <v>0.9838753510594536</v>
+        <v>1.004441188569861</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="Q24">
-        <v>0.9871551737900111</v>
+        <v>1.013050674712946</v>
       </c>
       <c r="R24">
         <v>1</v>
       </c>
       <c r="S24">
-        <v>24.85544280211162</v>
+        <v>12.51552698991746</v>
       </c>
       <c r="T24">
-        <v>20.88145009887552</v>
+        <v>8.578434105375729</v>
       </c>
       <c r="U24">
-        <v>7.403916723047144</v>
+        <v>0.3997434054532809</v>
       </c>
       <c r="V24">
-        <v>10.71325603802469</v>
+        <v>3.429258214845729</v>
       </c>
       <c r="W24">
-        <v>6.149487774870911</v>
+        <v>0.3770007171071902</v>
       </c>
       <c r="X24">
-        <v>9.565032487243126</v>
+        <v>3.490114626807165</v>
       </c>
       <c r="Y24">
-        <v>0.110661050787976</v>
+        <v>-4.043285736203008</v>
       </c>
       <c r="Z24">
-        <v>3.530356107424166</v>
+        <v>-0.8532724286249206</v>
       </c>
       <c r="AA24">
-        <v>2.982758491017743</v>
+        <v>-2.692425699341917</v>
       </c>
       <c r="AB24">
-        <v>6.428055293472864</v>
+        <v>0.4660819813240272</v>
       </c>
       <c r="AC24">
         <v>0</v>
       </c>
       <c r="AD24">
-        <v>6.415214782985857</v>
+        <v>0.4532414708370179</v>
       </c>
       <c r="AE24">
-        <v>6.415214782985857</v>
+        <v>0.4532414708370179</v>
       </c>
       <c r="AF24">
-        <v>14.75651342991188</v>
+        <v>8.559340835760418</v>
       </c>
       <c r="AG24">
-        <v>19.2159763680747</v>
+        <v>12.5295599356069</v>
       </c>
       <c r="AH24">
-        <v>10.80126652419402</v>
+        <v>3.491790809933078</v>
       </c>
       <c r="AI24">
-        <v>11.13558636719902</v>
+        <v>3.8175647089514</v>
       </c>
       <c r="AJ24">
-        <v>66.83854951906676</v>
+        <v>34.41665795865617</v>
       </c>
       <c r="AK24">
-        <v>53.02790347773158</v>
+        <v>39.96926612261245</v>
       </c>
       <c r="AL24">
-        <v>1.96492501184496</v>
+        <v>2.050476574458486</v>
       </c>
       <c r="AM24">
-        <v>17.07576365530445</v>
+        <v>17.1926749059366</v>
       </c>
       <c r="AN24">
-        <v>24.66621784834317</v>
+        <v>11.89300891847658</v>
       </c>
       <c r="AO24">
-        <v>25.65498825711326</v>
+        <v>7.399868974689938</v>
       </c>
       <c r="AP24">
-        <v>46.98189030451638</v>
+        <v>45.18571902070342</v>
       </c>
       <c r="AQ24">
-        <v>7.467939068151253</v>
+        <v>2.652461982730145</v>
       </c>
       <c r="AR24">
-        <v>74.68622198678383</v>
+        <v>12.89924200575877</v>
       </c>
       <c r="AS24">
-        <v>57.80556520657913</v>
+        <v>30.85099550298703</v>
       </c>
       <c r="AT24">
-        <v>58.74196485071094</v>
+        <v>6.066488333441783</v>
       </c>
       <c r="AU24">
-        <v>58.77827718062536</v>
+        <v>3.436662120073606</v>
       </c>
       <c r="AV24">
-        <v>59.00181550656974</v>
+        <v>2.323648336803842</v>
       </c>
       <c r="AW24">
+        <v>0.0007736294141702113</v>
+      </c>
+      <c r="AX24">
+        <v>0.4775186205467747</v>
+      </c>
+      <c r="AY24">
+        <v>0.2868670993365328</v>
+      </c>
+      <c r="AZ24">
+        <v>0.05981315068411419</v>
+      </c>
+      <c r="BA24">
+        <v>2.110889340867431</v>
+      </c>
+      <c r="BB24">
+        <v>0.0003062096323336316</v>
+      </c>
+      <c r="BC24">
+        <v>0.7906180933296696</v>
+      </c>
+      <c r="BD24">
+        <v>3.073844046473113</v>
+      </c>
+      <c r="BE24">
+        <v>0.04011386356985325</v>
+      </c>
+      <c r="BF24">
+        <v>72.45454273848983</v>
+      </c>
+      <c r="BG24">
+        <v>55.2679656742455</v>
+      </c>
+      <c r="BH24">
+        <v>56.03730767471671</v>
+      </c>
+      <c r="BI24">
+        <v>56.7363890799728</v>
+      </c>
+      <c r="BJ24">
+        <v>56.45095200923858</v>
+      </c>
+      <c r="BK24">
         <v>0</v>
       </c>
-      <c r="AX24">
-        <v>78.84912001416119</v>
-      </c>
-      <c r="AY24">
-        <v>14.09252114176918</v>
+      <c r="BL24">
+        <v>69.57509615680409</v>
+      </c>
+      <c r="BM24">
+        <v>14.25028291322681</v>
       </c>
     </row>
-    <row r="25" spans="1:51">
+    <row r="25" spans="1:65">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4252,151 +5302,193 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030861667311634</v>
+        <v>1.040787259483333</v>
       </c>
       <c r="D25">
-        <v>0.955896567759659</v>
+        <v>1.000141977021404</v>
       </c>
       <c r="E25">
-        <v>0.9714828554244987</v>
+        <v>1.014922669516747</v>
       </c>
       <c r="F25">
-        <v>0.9410991305456274</v>
+        <v>0.9867257618722293</v>
       </c>
       <c r="G25">
-        <v>0.9569755877473664</v>
+        <v>1.001741465244156</v>
       </c>
       <c r="H25">
-        <v>0.9394654782848609</v>
+        <v>0.9749690199161181</v>
       </c>
       <c r="I25">
-        <v>0.9553746590149144</v>
+        <v>0.990197134248041</v>
       </c>
       <c r="J25">
-        <v>0.9365951601042537</v>
+        <v>0.9799704219338226</v>
       </c>
       <c r="K25">
-        <v>0.952562175981971</v>
+        <v>0.9951074179251079</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.9539156140670976</v>
+        <v>0.9965213059758524</v>
       </c>
       <c r="N25">
-        <v>0.9539156140670976</v>
+        <v>0.9965213059758524</v>
       </c>
       <c r="O25">
-        <v>0.9843864052912908</v>
+        <v>1.005054731227731</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q25">
-        <v>0.9875179957170187</v>
+        <v>1.014033072352232</v>
       </c>
       <c r="R25">
         <v>0.9999999999999999</v>
       </c>
       <c r="S25">
-        <v>27.08626972630226</v>
+        <v>13.25515675537456</v>
       </c>
       <c r="T25">
-        <v>23.1130522541281</v>
+        <v>9.319890330859641</v>
       </c>
       <c r="U25">
-        <v>9.846561744352087</v>
+        <v>1.33464788116781</v>
       </c>
       <c r="V25">
-        <v>12.94967778949356</v>
+        <v>4.173317173803881</v>
       </c>
       <c r="W25">
-        <v>8.870494146402443</v>
+        <v>1.566238154714533</v>
       </c>
       <c r="X25">
-        <v>12.07028259282222</v>
+        <v>4.48142905706133</v>
       </c>
       <c r="Y25">
-        <v>2.029937883430803</v>
+        <v>-3.111431461026827</v>
       </c>
       <c r="Z25">
-        <v>5.240673171273118</v>
+        <v>-0.126628311577082</v>
       </c>
       <c r="AA25">
-        <v>5.372695739046212</v>
+        <v>-1.631126862379312</v>
       </c>
       <c r="AB25">
-        <v>8.602800100898033</v>
+        <v>1.323763188403774</v>
       </c>
       <c r="AC25">
         <v>0</v>
       </c>
       <c r="AD25">
-        <v>8.589959590411022</v>
+        <v>1.310922677916765</v>
       </c>
       <c r="AE25">
-        <v>8.589959590411022</v>
+        <v>1.310922677916765</v>
       </c>
       <c r="AF25">
-        <v>17.25851102279502</v>
+        <v>9.547496351716948</v>
       </c>
       <c r="AG25">
-        <v>21.71565410263385</v>
+        <v>13.51528792066809</v>
       </c>
       <c r="AH25">
-        <v>13.00670551918446</v>
+        <v>4.372229203116567</v>
       </c>
       <c r="AI25">
-        <v>13.29371224632878</v>
+        <v>4.651731178444626</v>
       </c>
       <c r="AJ25">
-        <v>66.77697804169516</v>
+        <v>34.3518153369618</v>
       </c>
       <c r="AK25">
-        <v>53.76476008442975</v>
+        <v>38.51004428406578</v>
       </c>
       <c r="AL25">
-        <v>1.96645107478699</v>
+        <v>2.054280655738107</v>
       </c>
       <c r="AM25">
-        <v>18.84677621442659</v>
+        <v>17.96610878437314</v>
       </c>
       <c r="AN25">
-        <v>28.50286220339348</v>
+        <v>13.01157429527649</v>
       </c>
       <c r="AO25">
-        <v>33.32641517751252</v>
+        <v>5.414797022211141</v>
       </c>
       <c r="AP25">
-        <v>46.89261374802328</v>
+        <v>45.19914050840769</v>
       </c>
       <c r="AQ25">
-        <v>7.362717147432011</v>
+        <v>2.99437032060341</v>
       </c>
       <c r="AR25">
-        <v>74.62767910513584</v>
+        <v>15.27628023076318</v>
       </c>
       <c r="AS25">
-        <v>54.46285013205843</v>
+        <v>30.79027717386068</v>
       </c>
       <c r="AT25">
-        <v>55.31920051977911</v>
+        <v>6.027718075317563</v>
       </c>
       <c r="AU25">
-        <v>55.41539600442628</v>
+        <v>3.426166501312252</v>
       </c>
       <c r="AV25">
-        <v>55.58522372232665</v>
+        <v>2.155956771593992</v>
       </c>
       <c r="AW25">
+        <v>0.0007765025795369803</v>
+      </c>
+      <c r="AX25">
+        <v>0.5204897356615206</v>
+      </c>
+      <c r="AY25">
+        <v>0.345748856481265</v>
+      </c>
+      <c r="AZ25">
+        <v>0.01710694585180939</v>
+      </c>
+      <c r="BA25">
+        <v>2.110936103803141</v>
+      </c>
+      <c r="BB25">
+        <v>0.002236464976190788</v>
+      </c>
+      <c r="BC25">
+        <v>1.15957847669911</v>
+      </c>
+      <c r="BD25">
+        <v>3.064456479666717</v>
+      </c>
+      <c r="BE25">
+        <v>0.03848411684389526</v>
+      </c>
+      <c r="BF25">
+        <v>72.37508059932894</v>
+      </c>
+      <c r="BG25">
+        <v>52.05346111628022</v>
+      </c>
+      <c r="BH25">
+        <v>52.76121646288245</v>
+      </c>
+      <c r="BI25">
+        <v>53.39744181422542</v>
+      </c>
+      <c r="BJ25">
+        <v>53.12492126946972</v>
+      </c>
+      <c r="BK25">
         <v>0</v>
       </c>
-      <c r="AX25">
-        <v>78.7264990257251</v>
-      </c>
-      <c r="AY25">
-        <v>13.43798297963889</v>
+      <c r="BL25">
+        <v>69.59576200694066</v>
+      </c>
+      <c r="BM25">
+        <v>14.86802421040069</v>
       </c>
     </row>
   </sheetData>
